--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_12_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_12_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1153098.135016587</v>
+        <v>-1155002.219427106</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3269409.908779571</v>
+        <v>3269409.908779572</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>15.26809192273228</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>6.841400149308679</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.47865120333094</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="S9" t="n">
         <v>15.30273751513505</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>15.30273751513505</v>
+        <v>12.73205987707308</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1291,31 +1291,31 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>10.75721046822444</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>368.6523969119754</v>
+        <v>368.6523969119752</v>
       </c>
       <c r="C11" t="n">
-        <v>351.1914470195023</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>340.6015968691777</v>
+        <v>340.6015968691776</v>
       </c>
       <c r="E11" t="n">
-        <v>367.8489253207566</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>392.7946009902061</v>
       </c>
       <c r="G11" t="n">
-        <v>398.6026572523079</v>
+        <v>398.6026572523078</v>
       </c>
       <c r="H11" t="n">
-        <v>298.5752564339365</v>
+        <v>298.5752564339364</v>
       </c>
       <c r="I11" t="n">
-        <v>95.43949926866307</v>
+        <v>95.43949926866294</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>135.2664681204922</v>
       </c>
       <c r="T11" t="n">
-        <v>197.5513278618145</v>
+        <v>197.5513278618144</v>
       </c>
       <c r="U11" t="n">
-        <v>237.0547173154255</v>
+        <v>237.0547173154254</v>
       </c>
       <c r="V11" t="n">
-        <v>147.1442714245168</v>
+        <v>313.6708137186296</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>335.1595239659077</v>
       </c>
       <c r="X11" t="n">
-        <v>355.6496559269638</v>
+        <v>355.6496559269637</v>
       </c>
       <c r="Y11" t="n">
-        <v>372.1564939045484</v>
+        <v>61.44973087408738</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>98.70383051255502</v>
       </c>
       <c r="I12" t="n">
-        <v>41.1572287946756</v>
+        <v>41.15722879467558</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>13.1671330281585</v>
+        <v>13.16713302815847</v>
       </c>
       <c r="S12" t="n">
         <v>145.6584735012529</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>165.750535430432</v>
       </c>
       <c r="C13" t="n">
-        <v>153.1653763471226</v>
+        <v>153.1653763471225</v>
       </c>
       <c r="D13" t="n">
-        <v>134.5340282667071</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>132.3525178950639</v>
+        <v>132.3525178950638</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>100.6254695643343</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>106.0447103392956</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>110.3963221059792</v>
       </c>
       <c r="S13" t="n">
-        <v>189.4645604419094</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>272.1735138918603</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.4415535850858</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>211.6282106375318</v>
       </c>
       <c r="Y13" t="n">
-        <v>30.33480049259873</v>
+        <v>204.5032086005895</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>364.6932726620596</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>102.7159838659858</v>
+        <v>347.2323227695866</v>
       </c>
       <c r="D14" t="n">
         <v>336.642472619262</v>
@@ -1619,13 +1619,13 @@
         <v>388.8354767402905</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>394.6435330023922</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6161321840208</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>91.48037501874731</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>131.3073438705765</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>193.5922036118988</v>
@@ -1667,7 +1667,7 @@
         <v>309.7116894687139</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>242.937251829411</v>
       </c>
       <c r="X14" t="n">
         <v>351.6905316770481</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>13.16713302815849</v>
+        <v>13.16713302815847</v>
       </c>
       <c r="S15" t="n">
         <v>145.6584735012529</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>127.3804790215103</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>106.4371978560636</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>185.5054361919937</v>
       </c>
       <c r="T16" t="n">
-        <v>152.7725249915083</v>
+        <v>131.8292438260623</v>
       </c>
       <c r="U16" t="n">
         <v>268.2143896419445</v>
@@ -1853,16 +1853,16 @@
         <v>299.1991162960418</v>
       </c>
       <c r="F17" t="n">
-        <v>324.1447919654915</v>
+        <v>324.1447919654914</v>
       </c>
       <c r="G17" t="n">
         <v>329.9528482275932</v>
       </c>
       <c r="H17" t="n">
-        <v>229.9254474092218</v>
+        <v>229.9254474092217</v>
       </c>
       <c r="I17" t="n">
-        <v>26.78969024394833</v>
+        <v>26.78969024394845</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>66.61665909577754</v>
+        <v>66.61665909577752</v>
       </c>
       <c r="T17" t="n">
         <v>128.9015188370998</v>
@@ -1901,13 +1901,13 @@
         <v>168.4049082907108</v>
       </c>
       <c r="V17" t="n">
-        <v>245.021004693915</v>
+        <v>245.0210046939149</v>
       </c>
       <c r="W17" t="n">
-        <v>266.5097149411931</v>
+        <v>266.509714941193</v>
       </c>
       <c r="X17" t="n">
-        <v>286.9998469022491</v>
+        <v>286.999846902249</v>
       </c>
       <c r="Y17" t="n">
         <v>303.5066848798336</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>13.16713302815849</v>
+        <v>13.16713302815847</v>
       </c>
       <c r="S18" t="n">
         <v>145.6584735012529</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.10072640571734</v>
+        <v>97.10072640571732</v>
       </c>
       <c r="C19" t="n">
-        <v>84.51556732240788</v>
+        <v>84.51556732240786</v>
       </c>
       <c r="D19" t="n">
-        <v>65.8842192419924</v>
+        <v>65.88421924199238</v>
       </c>
       <c r="E19" t="n">
-        <v>63.70270887034921</v>
+        <v>63.7027088703492</v>
       </c>
       <c r="F19" t="n">
-        <v>62.68979424671129</v>
+        <v>62.68979424671127</v>
       </c>
       <c r="G19" t="n">
-        <v>84.0850958416069</v>
+        <v>84.08509584160689</v>
       </c>
       <c r="H19" t="n">
-        <v>69.05239249178332</v>
+        <v>69.05239249178331</v>
       </c>
       <c r="I19" t="n">
-        <v>37.394901314581</v>
+        <v>37.39490131458098</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.74651308126457</v>
+        <v>41.74651308126455</v>
       </c>
       <c r="S19" t="n">
-        <v>120.8147514171947</v>
+        <v>120.8147514171946</v>
       </c>
       <c r="T19" t="n">
         <v>140.1954631239071</v>
       </c>
       <c r="U19" t="n">
-        <v>203.5237048671456</v>
+        <v>203.5237048671455</v>
       </c>
       <c r="V19" t="n">
-        <v>169.4063895476081</v>
+        <v>169.406389547608</v>
       </c>
       <c r="W19" t="n">
-        <v>203.7917445603711</v>
+        <v>203.791744560371</v>
       </c>
       <c r="X19" t="n">
         <v>142.9784016128172</v>
@@ -2096,10 +2096,10 @@
         <v>329.9528482275932</v>
       </c>
       <c r="H20" t="n">
-        <v>229.9254474092218</v>
+        <v>229.9254474092217</v>
       </c>
       <c r="I20" t="n">
-        <v>26.78969024394831</v>
+        <v>26.7896902439483</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>13.16713302815849</v>
+        <v>13.16713302815847</v>
       </c>
       <c r="S21" t="n">
         <v>145.6584735012529</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.74651308126457</v>
+        <v>41.74651308126455</v>
       </c>
       <c r="S22" t="n">
-        <v>120.8147514171947</v>
+        <v>120.8147514171946</v>
       </c>
       <c r="T22" t="n">
         <v>140.1954631239071</v>
@@ -2333,10 +2333,10 @@
         <v>329.9528482275932</v>
       </c>
       <c r="H23" t="n">
-        <v>229.9254474092218</v>
+        <v>229.9254474092217</v>
       </c>
       <c r="I23" t="n">
-        <v>26.78969024394831</v>
+        <v>26.78969024394827</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>66.61665909577752</v>
+        <v>66.61665909577751</v>
       </c>
       <c r="T23" t="n">
         <v>128.9015188370998</v>
@@ -2415,7 +2415,7 @@
         <v>98.70383051255502</v>
       </c>
       <c r="I24" t="n">
-        <v>41.15722879467558</v>
+        <v>41.15722879467557</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>13.16713302815849</v>
+        <v>13.16713302815846</v>
       </c>
       <c r="S24" t="n">
         <v>145.6584735012529</v>
@@ -2491,7 +2491,7 @@
         <v>84.08509584160689</v>
       </c>
       <c r="H25" t="n">
-        <v>69.05239249178331</v>
+        <v>69.05239249178329</v>
       </c>
       <c r="I25" t="n">
         <v>37.39490131458098</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.74651308126456</v>
+        <v>41.74651308126454</v>
       </c>
       <c r="S25" t="n">
-        <v>120.8147514171947</v>
+        <v>120.8147514171946</v>
       </c>
       <c r="T25" t="n">
         <v>140.1954631239071</v>
@@ -2570,10 +2570,10 @@
         <v>329.9528482275932</v>
       </c>
       <c r="H26" t="n">
-        <v>229.9254474092218</v>
+        <v>229.9254474092217</v>
       </c>
       <c r="I26" t="n">
-        <v>26.78969024394831</v>
+        <v>26.7896902439483</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>13.16713302815849</v>
+        <v>13.16713302815847</v>
       </c>
       <c r="S27" t="n">
         <v>145.6584735012529</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.74651308126457</v>
+        <v>41.74651308126455</v>
       </c>
       <c r="S28" t="n">
-        <v>120.8147514171947</v>
+        <v>120.8147514171946</v>
       </c>
       <c r="T28" t="n">
         <v>140.1954631239071</v>
@@ -2801,16 +2801,16 @@
         <v>303.1582405459575</v>
       </c>
       <c r="F29" t="n">
-        <v>328.1039162154072</v>
+        <v>328.1039162154071</v>
       </c>
       <c r="G29" t="n">
         <v>333.9119724775089</v>
       </c>
       <c r="H29" t="n">
-        <v>233.8845716591375</v>
+        <v>233.8845716591374</v>
       </c>
       <c r="I29" t="n">
-        <v>30.74881449386405</v>
+        <v>30.74881449386397</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.57578334569328</v>
+        <v>70.5757833456932</v>
       </c>
       <c r="T29" t="n">
-        <v>132.8606430870155</v>
+        <v>132.8606430870154</v>
       </c>
       <c r="U29" t="n">
         <v>172.3640325406265</v>
       </c>
       <c r="V29" t="n">
-        <v>248.9801289438307</v>
+        <v>248.9801289438306</v>
       </c>
       <c r="W29" t="n">
-        <v>270.4688391911088</v>
+        <v>270.4688391911087</v>
       </c>
       <c r="X29" t="n">
-        <v>290.9589711521648</v>
+        <v>290.9589711521647</v>
       </c>
       <c r="Y29" t="n">
         <v>307.4658091297493</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>101.0598506556331</v>
+        <v>101.059850655633</v>
       </c>
       <c r="C31" t="n">
-        <v>88.47469157232361</v>
+        <v>88.47469157232354</v>
       </c>
       <c r="D31" t="n">
-        <v>69.84334349190813</v>
+        <v>69.84334349190806</v>
       </c>
       <c r="E31" t="n">
-        <v>67.66183312026494</v>
+        <v>67.66183312026487</v>
       </c>
       <c r="F31" t="n">
-        <v>66.64891849662702</v>
+        <v>66.64891849662695</v>
       </c>
       <c r="G31" t="n">
-        <v>88.04422009152263</v>
+        <v>88.04422009152256</v>
       </c>
       <c r="H31" t="n">
-        <v>73.01151674169905</v>
+        <v>73.01151674169898</v>
       </c>
       <c r="I31" t="n">
-        <v>41.35402556449672</v>
+        <v>41.35402556449665</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>45.70563733118029</v>
+        <v>45.70563733118022</v>
       </c>
       <c r="S31" t="n">
-        <v>124.7738756671104</v>
+        <v>124.7738756671103</v>
       </c>
       <c r="T31" t="n">
-        <v>144.1545873738228</v>
+        <v>144.1545873738227</v>
       </c>
       <c r="U31" t="n">
-        <v>113.0941396996689</v>
+        <v>207.4828291170612</v>
       </c>
       <c r="V31" t="n">
-        <v>173.3655137975238</v>
+        <v>173.3655137975237</v>
       </c>
       <c r="W31" t="n">
-        <v>207.7508688102868</v>
+        <v>113.3621793928961</v>
       </c>
       <c r="X31" t="n">
         <v>146.9375258627329</v>
@@ -3029,7 +3029,7 @@
         <v>300.0025878872606</v>
       </c>
       <c r="C32" t="n">
-        <v>282.5416379947876</v>
+        <v>282.5416379947875</v>
       </c>
       <c r="D32" t="n">
         <v>271.951787844463</v>
@@ -3044,10 +3044,10 @@
         <v>329.9528482275932</v>
       </c>
       <c r="H32" t="n">
-        <v>229.9254474092218</v>
+        <v>229.9254474092217</v>
       </c>
       <c r="I32" t="n">
-        <v>26.7896902439483</v>
+        <v>26.78969024394826</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.61665909577752</v>
+        <v>66.61665909577746</v>
       </c>
       <c r="T32" t="n">
-        <v>128.9015188370998</v>
+        <v>128.9015188370997</v>
       </c>
       <c r="U32" t="n">
         <v>168.4049082907108</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.10072640571732</v>
+        <v>97.10072640571728</v>
       </c>
       <c r="C34" t="n">
-        <v>84.51556732240786</v>
+        <v>84.51556732240782</v>
       </c>
       <c r="D34" t="n">
-        <v>65.88421924199238</v>
+        <v>65.88421924199234</v>
       </c>
       <c r="E34" t="n">
-        <v>63.7027088703492</v>
+        <v>63.70270887034916</v>
       </c>
       <c r="F34" t="n">
-        <v>62.68979424671127</v>
+        <v>62.68979424671123</v>
       </c>
       <c r="G34" t="n">
-        <v>84.08509584160689</v>
+        <v>84.08509584160684</v>
       </c>
       <c r="H34" t="n">
-        <v>69.05239249178331</v>
+        <v>69.05239249178327</v>
       </c>
       <c r="I34" t="n">
-        <v>37.39490131458098</v>
+        <v>37.39490131458093</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.74651308126454</v>
+        <v>41.7465130812645</v>
       </c>
       <c r="S34" t="n">
-        <v>120.8147514171947</v>
+        <v>120.8147514171946</v>
       </c>
       <c r="T34" t="n">
-        <v>140.1954631239071</v>
+        <v>140.195463123907</v>
       </c>
       <c r="U34" t="n">
         <v>203.5237048671455</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>300.0025878872606</v>
+        <v>300.0025878872605</v>
       </c>
       <c r="C38" t="n">
-        <v>282.5416379947876</v>
+        <v>282.5416379947875</v>
       </c>
       <c r="D38" t="n">
-        <v>271.951787844463</v>
+        <v>271.9517878444628</v>
       </c>
       <c r="E38" t="n">
-        <v>299.1991162960418</v>
+        <v>299.1991162960417</v>
       </c>
       <c r="F38" t="n">
-        <v>324.1447919654915</v>
+        <v>324.1447919654913</v>
       </c>
       <c r="G38" t="n">
-        <v>329.9528482275932</v>
+        <v>329.9528482275931</v>
       </c>
       <c r="H38" t="n">
-        <v>229.9254474092218</v>
+        <v>229.9254474092217</v>
       </c>
       <c r="I38" t="n">
-        <v>26.78969024394831</v>
+        <v>26.78969024394819</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.61665909577754</v>
+        <v>66.61665909577741</v>
       </c>
       <c r="T38" t="n">
-        <v>128.9015188370998</v>
+        <v>128.9015188370996</v>
       </c>
       <c r="U38" t="n">
-        <v>168.4049082907108</v>
+        <v>168.4049082907107</v>
       </c>
       <c r="V38" t="n">
-        <v>245.021004693915</v>
+        <v>245.0210046939148</v>
       </c>
       <c r="W38" t="n">
-        <v>266.5097149411931</v>
+        <v>266.5097149411929</v>
       </c>
       <c r="X38" t="n">
-        <v>286.9998469022491</v>
+        <v>286.9998469022489</v>
       </c>
       <c r="Y38" t="n">
-        <v>303.5066848798336</v>
+        <v>303.5066848798335</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.10072640571734</v>
+        <v>97.10072640571721</v>
       </c>
       <c r="C40" t="n">
-        <v>84.51556732240788</v>
+        <v>84.51556732240775</v>
       </c>
       <c r="D40" t="n">
-        <v>65.8842192419924</v>
+        <v>65.88421924199227</v>
       </c>
       <c r="E40" t="n">
-        <v>63.70270887034921</v>
+        <v>63.70270887034908</v>
       </c>
       <c r="F40" t="n">
-        <v>62.68979424671129</v>
+        <v>62.68979424671116</v>
       </c>
       <c r="G40" t="n">
-        <v>84.0850958416069</v>
+        <v>84.08509584160677</v>
       </c>
       <c r="H40" t="n">
-        <v>69.05239249178332</v>
+        <v>69.05239249178319</v>
       </c>
       <c r="I40" t="n">
-        <v>37.39490131458099</v>
+        <v>37.39490131458086</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.74651308126456</v>
+        <v>41.74651308126443</v>
       </c>
       <c r="S40" t="n">
-        <v>120.8147514171947</v>
+        <v>120.8147514171945</v>
       </c>
       <c r="T40" t="n">
-        <v>140.1954631239071</v>
+        <v>140.195463123907</v>
       </c>
       <c r="U40" t="n">
-        <v>203.5237048671456</v>
+        <v>203.5237048671454</v>
       </c>
       <c r="V40" t="n">
-        <v>169.4063895476081</v>
+        <v>169.4063895476079</v>
       </c>
       <c r="W40" t="n">
-        <v>203.7917445603711</v>
+        <v>203.7917445603709</v>
       </c>
       <c r="X40" t="n">
-        <v>142.9784016128172</v>
+        <v>142.9784016128171</v>
       </c>
       <c r="Y40" t="n">
-        <v>135.8533995758748</v>
+        <v>135.8533995758747</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>300.0025878872606</v>
       </c>
       <c r="C41" t="n">
-        <v>282.5416379947876</v>
+        <v>282.5416379947875</v>
       </c>
       <c r="D41" t="n">
         <v>271.951787844463</v>
@@ -3758,7 +3758,7 @@
         <v>229.9254474092218</v>
       </c>
       <c r="I41" t="n">
-        <v>26.7896902439483</v>
+        <v>26.78969024394826</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.61665909577752</v>
+        <v>66.61665909577748</v>
       </c>
       <c r="T41" t="n">
-        <v>128.9015188370998</v>
+        <v>128.9015188370997</v>
       </c>
       <c r="U41" t="n">
         <v>168.4049082907108</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.10072640571732</v>
+        <v>97.10072640571728</v>
       </c>
       <c r="C43" t="n">
-        <v>84.51556732240786</v>
+        <v>84.51556732240782</v>
       </c>
       <c r="D43" t="n">
-        <v>65.88421924199238</v>
+        <v>65.88421924199234</v>
       </c>
       <c r="E43" t="n">
-        <v>63.7027088703492</v>
+        <v>63.70270887034916</v>
       </c>
       <c r="F43" t="n">
-        <v>62.68979424671127</v>
+        <v>62.68979424671123</v>
       </c>
       <c r="G43" t="n">
-        <v>84.08509584160689</v>
+        <v>84.08509584160684</v>
       </c>
       <c r="H43" t="n">
-        <v>69.05239249178331</v>
+        <v>69.05239249178327</v>
       </c>
       <c r="I43" t="n">
-        <v>37.39490131458098</v>
+        <v>37.39490131458093</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.74651308126454</v>
+        <v>41.7465130812645</v>
       </c>
       <c r="S43" t="n">
-        <v>120.8147514171947</v>
+        <v>120.8147514171946</v>
       </c>
       <c r="T43" t="n">
-        <v>140.1954631239071</v>
+        <v>140.195463123907</v>
       </c>
       <c r="U43" t="n">
         <v>203.5237048671455</v>
@@ -3995,7 +3995,7 @@
         <v>229.9254474092218</v>
       </c>
       <c r="I44" t="n">
-        <v>26.78969024394829</v>
+        <v>26.78969024394826</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.61665909577751</v>
+        <v>66.61665909577748</v>
       </c>
       <c r="T44" t="n">
         <v>128.9015188370997</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.10072640571731</v>
+        <v>97.10072640571728</v>
       </c>
       <c r="C46" t="n">
-        <v>84.51556732240785</v>
+        <v>84.51556732240782</v>
       </c>
       <c r="D46" t="n">
-        <v>65.88421924199237</v>
+        <v>65.88421924199234</v>
       </c>
       <c r="E46" t="n">
-        <v>63.70270887034918</v>
+        <v>63.70270887034916</v>
       </c>
       <c r="F46" t="n">
-        <v>62.68979424671126</v>
+        <v>62.68979424671123</v>
       </c>
       <c r="G46" t="n">
-        <v>84.08509584160687</v>
+        <v>84.08509584160684</v>
       </c>
       <c r="H46" t="n">
-        <v>69.05239249178329</v>
+        <v>69.05239249178327</v>
       </c>
       <c r="I46" t="n">
-        <v>37.39490131458096</v>
+        <v>37.39490131458093</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.74651308126452</v>
+        <v>41.7465130812645</v>
       </c>
       <c r="S46" t="n">
         <v>120.8147514171946</v>
       </c>
       <c r="T46" t="n">
-        <v>140.1954631239071</v>
+        <v>140.195463123907</v>
       </c>
       <c r="U46" t="n">
         <v>203.5237048671455</v>
@@ -4781,22 +4781,22 @@
         <v>51.11933469231312</v>
       </c>
       <c r="C8" t="n">
-        <v>35.69701961884617</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="D8" t="n">
-        <v>35.69701961884617</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="E8" t="n">
-        <v>35.69701961884617</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="F8" t="n">
-        <v>28.75151886964269</v>
+        <v>35.66202407096459</v>
       </c>
       <c r="G8" t="n">
-        <v>13.29420824829416</v>
+        <v>20.20471344961605</v>
       </c>
       <c r="H8" t="n">
-        <v>13.29420824829416</v>
+        <v>20.20471344961605</v>
       </c>
       <c r="I8" t="n">
         <v>13.29420824829416</v>
@@ -4808,13 +4808,13 @@
         <v>1.224219001210804</v>
       </c>
       <c r="L8" t="n">
+        <v>1.224219001210804</v>
+      </c>
+      <c r="M8" t="n">
         <v>15.7618196405891</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>30.9115297805728</v>
-      </c>
-      <c r="N8" t="n">
-        <v>46.0612399205565</v>
       </c>
       <c r="O8" t="n">
         <v>46.0612399205565</v>
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.68152962255934</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="C9" t="n">
-        <v>16.68152962255934</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="D9" t="n">
-        <v>16.68152962255934</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="E9" t="n">
-        <v>16.68152962255934</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="F9" t="n">
-        <v>16.68152962255934</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="G9" t="n">
-        <v>16.68152962255934</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="H9" t="n">
-        <v>1.224219001210804</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="I9" t="n">
-        <v>1.224219001210804</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="J9" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K9" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L9" t="n">
-        <v>16.37392914119451</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="M9" t="n">
-        <v>31.52363928117821</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="N9" t="n">
-        <v>46.0612399205565</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="O9" t="n">
-        <v>46.0612399205565</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="P9" t="n">
         <v>61.2109500605402</v>
@@ -4905,28 +4905,28 @@
         <v>61.2109500605402</v>
       </c>
       <c r="R9" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S9" t="n">
-        <v>45.75363943919166</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="T9" t="n">
-        <v>45.75363943919166</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="U9" t="n">
-        <v>45.75363943919166</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="V9" t="n">
-        <v>30.29632881784312</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="W9" t="n">
-        <v>30.29632881784312</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="X9" t="n">
-        <v>30.29632881784312</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="Y9" t="n">
-        <v>30.29632881784312</v>
+        <v>17.43566227534506</v>
       </c>
     </row>
     <row r="10">
@@ -4939,28 +4939,28 @@
         <v>43.00470940373054</v>
       </c>
       <c r="C10" t="n">
-        <v>32.13884024390788</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="D10" t="n">
-        <v>32.13884024390788</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="E10" t="n">
+        <v>27.54739878238201</v>
+      </c>
+      <c r="F10" t="n">
+        <v>27.54739878238201</v>
+      </c>
+      <c r="G10" t="n">
+        <v>27.54739878238201</v>
+      </c>
+      <c r="H10" t="n">
+        <v>27.54739878238201</v>
+      </c>
+      <c r="I10" t="n">
         <v>16.68152962255934</v>
       </c>
-      <c r="F10" t="n">
+      <c r="J10" t="n">
         <v>16.68152962255934</v>
-      </c>
-      <c r="G10" t="n">
-        <v>16.68152962255934</v>
-      </c>
-      <c r="H10" t="n">
-        <v>16.68152962255934</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.224219001210804</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.224219001210804</v>
       </c>
       <c r="K10" t="n">
         <v>1.224219001210804</v>
@@ -4972,7 +4972,7 @@
         <v>31.52363928117821</v>
       </c>
       <c r="N10" t="n">
-        <v>46.0612399205565</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="O10" t="n">
         <v>61.2109500605402</v>
@@ -4981,10 +4981,10 @@
         <v>58.46202002507908</v>
       </c>
       <c r="Q10" t="n">
-        <v>58.46202002507908</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="R10" t="n">
-        <v>58.46202002507908</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="S10" t="n">
         <v>43.00470940373054</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1943.747226789578</v>
+        <v>1614.206043607707</v>
       </c>
       <c r="C11" t="n">
-        <v>1589.008391416344</v>
+        <v>1614.206043607707</v>
       </c>
       <c r="D11" t="n">
-        <v>1244.96637437677</v>
+        <v>1270.164026568133</v>
       </c>
       <c r="E11" t="n">
-        <v>873.401803345703</v>
+        <v>1270.164026568133</v>
       </c>
       <c r="F11" t="n">
-        <v>873.401803345703</v>
+        <v>873.4018033457028</v>
       </c>
       <c r="G11" t="n">
-        <v>470.7728566262</v>
+        <v>470.7728566261999</v>
       </c>
       <c r="H11" t="n">
         <v>169.1816885111126</v>
@@ -5039,10 +5039,10 @@
         <v>72.77815389630152</v>
       </c>
       <c r="J11" t="n">
-        <v>280.9792390070018</v>
+        <v>280.9792390070019</v>
       </c>
       <c r="K11" t="n">
-        <v>713.7634992720043</v>
+        <v>713.7634992720045</v>
       </c>
       <c r="L11" t="n">
         <v>1302.947271075065</v>
@@ -5051,40 +5051,40 @@
         <v>1975.134286238097</v>
       </c>
       <c r="N11" t="n">
-        <v>2305.914683245881</v>
+        <v>2643.565992510542</v>
       </c>
       <c r="O11" t="n">
-        <v>2891.908151156685</v>
+        <v>3229.559460421346</v>
       </c>
       <c r="P11" t="n">
-        <v>3354.365635672989</v>
+        <v>3579.034983973251</v>
       </c>
       <c r="Q11" t="n">
-        <v>3624.43018726812</v>
+        <v>3638.907694815076</v>
       </c>
       <c r="R11" t="n">
         <v>3638.907694815076</v>
       </c>
       <c r="S11" t="n">
-        <v>3638.907694815076</v>
+        <v>3502.274898733771</v>
       </c>
       <c r="T11" t="n">
-        <v>3439.360898995061</v>
+        <v>3302.728102913757</v>
       </c>
       <c r="U11" t="n">
-        <v>3199.911689585542</v>
+        <v>3063.278893504236</v>
       </c>
       <c r="V11" t="n">
-        <v>3051.281112389061</v>
+        <v>2746.439687727842</v>
       </c>
       <c r="W11" t="n">
-        <v>3051.281112389061</v>
+        <v>2407.894714024905</v>
       </c>
       <c r="X11" t="n">
-        <v>2692.039035695158</v>
+        <v>2048.652637331003</v>
       </c>
       <c r="Y11" t="n">
-        <v>2316.123385286523</v>
+        <v>1986.582202104652</v>
       </c>
     </row>
     <row r="12">
@@ -5109,7 +5109,7 @@
         <v>351.3675306148278</v>
       </c>
       <c r="G12" t="n">
-        <v>214.0519511763325</v>
+        <v>214.0519511763324</v>
       </c>
       <c r="H12" t="n">
         <v>114.3511122747617</v>
@@ -5118,16 +5118,16 @@
         <v>72.77815389630152</v>
       </c>
       <c r="J12" t="n">
-        <v>203.0879141850085</v>
+        <v>203.0879141850086</v>
       </c>
       <c r="K12" t="n">
-        <v>552.4288930664648</v>
+        <v>552.4288930664649</v>
       </c>
       <c r="L12" t="n">
-        <v>853.4451831526632</v>
+        <v>1083.565346813871</v>
       </c>
       <c r="M12" t="n">
-        <v>1525.235594228131</v>
+        <v>1525.23559422813</v>
       </c>
       <c r="N12" t="n">
         <v>1755.964361297349</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>497.0730251174062</v>
+        <v>569.9378247506618</v>
       </c>
       <c r="C13" t="n">
-        <v>342.3605237566763</v>
+        <v>415.2253233899316</v>
       </c>
       <c r="D13" t="n">
-        <v>206.4675659115176</v>
+        <v>415.2253233899316</v>
       </c>
       <c r="E13" t="n">
-        <v>72.77815389630152</v>
+        <v>281.5359113747156</v>
       </c>
       <c r="F13" t="n">
-        <v>72.77815389630152</v>
+        <v>281.5359113747156</v>
       </c>
       <c r="G13" t="n">
-        <v>72.77815389630152</v>
+        <v>179.8940229258931</v>
       </c>
       <c r="H13" t="n">
-        <v>72.77815389630152</v>
+        <v>179.8940229258931</v>
       </c>
       <c r="I13" t="n">
         <v>72.77815389630152</v>
       </c>
       <c r="J13" t="n">
-        <v>76.50905532083374</v>
+        <v>76.50905532083389</v>
       </c>
       <c r="K13" t="n">
-        <v>203.5088014846803</v>
+        <v>203.5088014846805</v>
       </c>
       <c r="L13" t="n">
-        <v>417.6526098010294</v>
+        <v>417.6526098010297</v>
       </c>
       <c r="M13" t="n">
-        <v>653.0685438566832</v>
+        <v>653.0685438566838</v>
       </c>
       <c r="N13" t="n">
-        <v>888.6529066326199</v>
+        <v>888.6529066326206</v>
       </c>
       <c r="O13" t="n">
-        <v>1091.301102437611</v>
+        <v>1091.301102437612</v>
       </c>
       <c r="P13" t="n">
-        <v>1243.192973038147</v>
+        <v>1243.192973038148</v>
       </c>
       <c r="Q13" t="n">
-        <v>1269.208811391602</v>
+        <v>1269.208811391604</v>
       </c>
       <c r="R13" t="n">
-        <v>1269.208811391602</v>
+        <v>1157.697374920918</v>
       </c>
       <c r="S13" t="n">
-        <v>1077.830467510886</v>
+        <v>1157.697374920918</v>
       </c>
       <c r="T13" t="n">
-        <v>1077.830467510886</v>
+        <v>1157.697374920918</v>
       </c>
       <c r="U13" t="n">
-        <v>802.9077262059766</v>
+        <v>1157.697374920918</v>
       </c>
       <c r="V13" t="n">
-        <v>802.9077262059766</v>
+        <v>1157.697374920918</v>
       </c>
       <c r="W13" t="n">
-        <v>527.7142377361929</v>
+        <v>1157.697374920918</v>
       </c>
       <c r="X13" t="n">
-        <v>527.7142377361929</v>
+        <v>943.9315055900774</v>
       </c>
       <c r="Y13" t="n">
-        <v>497.0730251174062</v>
+        <v>737.3626080137244</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1666.899609956046</v>
+        <v>1922.519170262334</v>
       </c>
       <c r="C14" t="n">
-        <v>1563.146090899495</v>
+        <v>1571.779450293055</v>
       </c>
       <c r="D14" t="n">
-        <v>1223.103189263877</v>
+        <v>1231.736548657437</v>
       </c>
       <c r="E14" t="n">
-        <v>855.5377336367646</v>
+        <v>864.171093030325</v>
       </c>
       <c r="F14" t="n">
-        <v>462.7746258182895</v>
+        <v>471.4079852118492</v>
       </c>
       <c r="G14" t="n">
-        <v>462.7746258182895</v>
+        <v>72.77815389630152</v>
       </c>
       <c r="H14" t="n">
-        <v>165.1825731071574</v>
+        <v>72.77815389630152</v>
       </c>
       <c r="I14" t="n">
         <v>72.77815389630152</v>
       </c>
       <c r="J14" t="n">
-        <v>280.9792390070018</v>
+        <v>113.5735899866488</v>
       </c>
       <c r="K14" t="n">
-        <v>713.7634992720043</v>
+        <v>546.3578502516515</v>
       </c>
       <c r="L14" t="n">
-        <v>1302.947271075065</v>
+        <v>1135.541622054712</v>
       </c>
       <c r="M14" t="n">
-        <v>1637.482976973436</v>
+        <v>1807.728637217744</v>
       </c>
       <c r="N14" t="n">
-        <v>2305.914683245881</v>
+        <v>2476.160343490189</v>
       </c>
       <c r="O14" t="n">
-        <v>2891.908151156685</v>
+        <v>3062.153811400993</v>
       </c>
       <c r="P14" t="n">
-        <v>3354.365635672989</v>
+        <v>3524.611295917297</v>
       </c>
       <c r="Q14" t="n">
         <v>3624.43018726812</v>
@@ -5303,25 +5303,25 @@
         <v>3638.907694815076</v>
       </c>
       <c r="S14" t="n">
-        <v>3506.274014137726</v>
+        <v>3638.907694815076</v>
       </c>
       <c r="T14" t="n">
-        <v>3310.726333721666</v>
+        <v>3443.360014399017</v>
       </c>
       <c r="U14" t="n">
-        <v>3075.276239716101</v>
+        <v>3207.909920393451</v>
       </c>
       <c r="V14" t="n">
-        <v>2762.436149343663</v>
+        <v>2895.069830021013</v>
       </c>
       <c r="W14" t="n">
-        <v>2762.436149343663</v>
+        <v>2649.678666556962</v>
       </c>
       <c r="X14" t="n">
-        <v>2407.193188053715</v>
+        <v>2294.435705267014</v>
       </c>
       <c r="Y14" t="n">
-        <v>2035.276653049036</v>
+        <v>1922.519170262334</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>72.77815389630152</v>
       </c>
       <c r="J15" t="n">
-        <v>78.25778919800381</v>
+        <v>203.0879141850086</v>
       </c>
       <c r="K15" t="n">
-        <v>165.7781834370073</v>
+        <v>290.6083084240121</v>
       </c>
       <c r="L15" t="n">
-        <v>696.9146371844138</v>
+        <v>821.7447621714185</v>
       </c>
       <c r="M15" t="n">
-        <v>1368.705048259881</v>
+        <v>1493.535173246886</v>
       </c>
       <c r="N15" t="n">
-        <v>1599.4338153291</v>
+        <v>1724.263940316105</v>
       </c>
       <c r="O15" t="n">
-        <v>2178.209461559213</v>
+        <v>2303.039586546218</v>
       </c>
       <c r="P15" t="n">
-        <v>2392.331725628074</v>
+        <v>2600.308240486565</v>
       </c>
       <c r="Q15" t="n">
         <v>2638.786159238304</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>72.77815389630152</v>
+        <v>201.4453044230796</v>
       </c>
       <c r="C16" t="n">
-        <v>72.77815389630152</v>
+        <v>201.4453044230796</v>
       </c>
       <c r="D16" t="n">
-        <v>72.77815389630152</v>
+        <v>201.4453044230796</v>
       </c>
       <c r="E16" t="n">
-        <v>72.77815389630152</v>
+        <v>201.4453044230796</v>
       </c>
       <c r="F16" t="n">
         <v>72.77815389630152</v>
@@ -5434,22 +5434,22 @@
         <v>72.77815389630152</v>
       </c>
       <c r="J16" t="n">
-        <v>80.42858832825036</v>
+        <v>80.42858832825038</v>
       </c>
       <c r="K16" t="n">
         <v>211.3478674995135</v>
       </c>
       <c r="L16" t="n">
-        <v>429.4112088232791</v>
+        <v>429.4112088232795</v>
       </c>
       <c r="M16" t="n">
-        <v>668.7466758863497</v>
+        <v>668.7466758863502</v>
       </c>
       <c r="N16" t="n">
-        <v>908.2505716697029</v>
+        <v>908.2505716697034</v>
       </c>
       <c r="O16" t="n">
-        <v>1114.818300482111</v>
+        <v>1114.818300482112</v>
       </c>
       <c r="P16" t="n">
         <v>1270.629704090063</v>
@@ -5458,28 +5458,28 @@
         <v>1300.565075450936</v>
       </c>
       <c r="R16" t="n">
-        <v>1193.052754384204</v>
+        <v>1300.565075450936</v>
       </c>
       <c r="S16" t="n">
-        <v>1005.673525907443</v>
+        <v>1113.185846974175</v>
       </c>
       <c r="T16" t="n">
-        <v>851.3578440978387</v>
+        <v>980.0249946246167</v>
       </c>
       <c r="U16" t="n">
-        <v>580.4342181968844</v>
+        <v>709.1013687236624</v>
       </c>
       <c r="V16" t="n">
-        <v>343.9725269621298</v>
+        <v>472.6396774889079</v>
       </c>
       <c r="W16" t="n">
-        <v>72.77815389630152</v>
+        <v>201.4453044230796</v>
       </c>
       <c r="X16" t="n">
-        <v>72.77815389630152</v>
+        <v>201.4453044230796</v>
       </c>
       <c r="Y16" t="n">
-        <v>72.77815389630152</v>
+        <v>201.4453044230796</v>
       </c>
     </row>
     <row r="17">
@@ -5489,46 +5489,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1855.106759938268</v>
+        <v>1855.106759938269</v>
       </c>
       <c r="C17" t="n">
-        <v>1569.711166004139</v>
+        <v>1569.71116600414</v>
       </c>
       <c r="D17" t="n">
-        <v>1295.012390403671</v>
+        <v>1295.012390403672</v>
       </c>
       <c r="E17" t="n">
-        <v>992.7910608117099</v>
+        <v>992.7910608117104</v>
       </c>
       <c r="F17" t="n">
-        <v>665.3720790283855</v>
+        <v>665.3720790283858</v>
       </c>
       <c r="G17" t="n">
         <v>332.0863737479885</v>
       </c>
       <c r="H17" t="n">
-        <v>99.8384470720069</v>
+        <v>99.83844707200703</v>
       </c>
       <c r="I17" t="n">
         <v>72.77815389630152</v>
       </c>
       <c r="J17" t="n">
-        <v>280.9792390070018</v>
+        <v>280.9792390070019</v>
       </c>
       <c r="K17" t="n">
-        <v>713.7634992720043</v>
+        <v>713.7634992720045</v>
       </c>
       <c r="L17" t="n">
-        <v>1283.876682900172</v>
+        <v>1302.947271075065</v>
       </c>
       <c r="M17" t="n">
-        <v>1956.063698063204</v>
+        <v>1637.482976973436</v>
       </c>
       <c r="N17" t="n">
-        <v>2624.495404335649</v>
+        <v>2305.914683245881</v>
       </c>
       <c r="O17" t="n">
-        <v>3210.488872246453</v>
+        <v>2891.908151156685</v>
       </c>
       <c r="P17" t="n">
         <v>3354.365635672989</v>
@@ -5552,10 +5552,10 @@
         <v>3023.812653484265</v>
       </c>
       <c r="W17" t="n">
-        <v>2754.610921220433</v>
+        <v>2754.610921220434</v>
       </c>
       <c r="X17" t="n">
-        <v>2464.712085965636</v>
+        <v>2464.712085965637</v>
       </c>
       <c r="Y17" t="n">
         <v>2158.139676996107</v>
@@ -5592,22 +5592,22 @@
         <v>72.77815389630152</v>
       </c>
       <c r="J18" t="n">
-        <v>203.0879141850085</v>
+        <v>203.0879141850086</v>
       </c>
       <c r="K18" t="n">
-        <v>552.4288930664648</v>
+        <v>552.4288930664649</v>
       </c>
       <c r="L18" t="n">
         <v>1083.565346813871</v>
       </c>
       <c r="M18" t="n">
-        <v>1450.590039097706</v>
+        <v>1294.307744776839</v>
       </c>
       <c r="N18" t="n">
-        <v>1681.318806166924</v>
+        <v>1525.036511846057</v>
       </c>
       <c r="O18" t="n">
-        <v>2260.094452397038</v>
+        <v>1944.8163114435</v>
       </c>
       <c r="P18" t="n">
         <v>2392.331725628074</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>544.8232845320915</v>
+        <v>544.8232845320914</v>
       </c>
       <c r="C19" t="n">
         <v>459.4540246104673</v>
       </c>
       <c r="D19" t="n">
-        <v>392.9043082044144</v>
+        <v>392.9043082044143</v>
       </c>
       <c r="E19" t="n">
         <v>328.5581376283041</v>
@@ -5689,16 +5689,16 @@
         <v>1499.080968044418</v>
       </c>
       <c r="P19" t="n">
-        <v>1718.936149579421</v>
+        <v>1718.93614957942</v>
       </c>
       <c r="Q19" t="n">
-        <v>1812.915298867345</v>
+        <v>1812.915298867344</v>
       </c>
       <c r="R19" t="n">
         <v>1770.747103835764</v>
       </c>
       <c r="S19" t="n">
-        <v>1648.712001394154</v>
+        <v>1648.712001394153</v>
       </c>
       <c r="T19" t="n">
         <v>1507.100422481116</v>
@@ -5710,13 +5710,13 @@
         <v>1130.403357415708</v>
       </c>
       <c r="W19" t="n">
-        <v>924.5531103850304</v>
+        <v>924.5531103850301</v>
       </c>
       <c r="X19" t="n">
-        <v>780.1304824932959</v>
+        <v>780.1304824932956</v>
       </c>
       <c r="Y19" t="n">
-        <v>642.9048263560485</v>
+        <v>642.9048263560483</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1855.106759938269</v>
+        <v>1855.106759938268</v>
       </c>
       <c r="C20" t="n">
-        <v>1569.71116600414</v>
+        <v>1569.711166004139</v>
       </c>
       <c r="D20" t="n">
         <v>1295.012390403672</v>
       </c>
       <c r="E20" t="n">
-        <v>992.7910608117107</v>
+        <v>992.7910608117104</v>
       </c>
       <c r="F20" t="n">
-        <v>665.372079028386</v>
+        <v>665.3720790283853</v>
       </c>
       <c r="G20" t="n">
-        <v>332.0863737479888</v>
+        <v>332.0863737479884</v>
       </c>
       <c r="H20" t="n">
-        <v>99.8384470720069</v>
+        <v>99.83844707200687</v>
       </c>
       <c r="I20" t="n">
-        <v>72.77815389630153</v>
+        <v>72.77815389630152</v>
       </c>
       <c r="J20" t="n">
-        <v>280.9792390070018</v>
+        <v>280.9792390070019</v>
       </c>
       <c r="K20" t="n">
-        <v>713.7634992720043</v>
+        <v>713.7634992720045</v>
       </c>
       <c r="L20" t="n">
-        <v>1175.48780256371</v>
+        <v>1302.947271075065</v>
       </c>
       <c r="M20" t="n">
-        <v>1847.674817726742</v>
+        <v>1975.134286238097</v>
       </c>
       <c r="N20" t="n">
-        <v>2516.106523999187</v>
+        <v>2643.565992510542</v>
       </c>
       <c r="O20" t="n">
-        <v>3102.099991909991</v>
+        <v>3229.559460421346</v>
       </c>
       <c r="P20" t="n">
-        <v>3564.557476426296</v>
+        <v>3564.557476426295</v>
       </c>
       <c r="Q20" t="n">
-        <v>3624.430187268121</v>
+        <v>3624.43018726812</v>
       </c>
       <c r="R20" t="n">
         <v>3638.907694815076</v>
       </c>
       <c r="S20" t="n">
-        <v>3571.618140172877</v>
+        <v>3571.618140172876</v>
       </c>
       <c r="T20" t="n">
         <v>3441.414585791968</v>
       </c>
       <c r="U20" t="n">
-        <v>3271.308617821554</v>
+        <v>3271.308617821553</v>
       </c>
       <c r="V20" t="n">
         <v>3023.812653484265</v>
       </c>
       <c r="W20" t="n">
-        <v>2754.610921220434</v>
+        <v>2754.610921220433</v>
       </c>
       <c r="X20" t="n">
-        <v>2464.712085965637</v>
+        <v>2464.712085965636</v>
       </c>
       <c r="Y20" t="n">
-        <v>2158.139676996108</v>
+        <v>2158.139676996107</v>
       </c>
     </row>
     <row r="21">
@@ -5820,25 +5820,25 @@
         <v>351.3675306148278</v>
       </c>
       <c r="G21" t="n">
-        <v>214.0519511763325</v>
+        <v>214.0519511763324</v>
       </c>
       <c r="H21" t="n">
         <v>114.3511122747617</v>
       </c>
       <c r="I21" t="n">
-        <v>72.77815389630153</v>
+        <v>72.77815389630152</v>
       </c>
       <c r="J21" t="n">
-        <v>203.0879141850086</v>
+        <v>78.25778919800383</v>
       </c>
       <c r="K21" t="n">
-        <v>552.4288930664648</v>
+        <v>427.5987680794601</v>
       </c>
       <c r="L21" t="n">
-        <v>1083.565346813871</v>
+        <v>958.7352218268666</v>
       </c>
       <c r="M21" t="n">
-        <v>1294.307744776839</v>
+        <v>1525.23559422813</v>
       </c>
       <c r="N21" t="n">
         <v>1755.964361297349</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>544.8232845320912</v>
+        <v>544.8232845320914</v>
       </c>
       <c r="C22" t="n">
-        <v>459.4540246104671</v>
+        <v>459.4540246104673</v>
       </c>
       <c r="D22" t="n">
-        <v>392.9043082044141</v>
+        <v>392.9043082044143</v>
       </c>
       <c r="E22" t="n">
-        <v>328.5581376283038</v>
+        <v>328.5581376283041</v>
       </c>
       <c r="F22" t="n">
-        <v>265.2351131366763</v>
+        <v>265.2351131366765</v>
       </c>
       <c r="G22" t="n">
-        <v>180.3006728926289</v>
+        <v>180.3006728926291</v>
       </c>
       <c r="H22" t="n">
         <v>110.5507814867874</v>
       </c>
       <c r="I22" t="n">
-        <v>72.77815389630153</v>
+        <v>72.77815389630152</v>
       </c>
       <c r="J22" t="n">
         <v>144.4723662553014</v>
       </c>
       <c r="K22" t="n">
-        <v>339.4354233536156</v>
+        <v>339.4354233536155</v>
       </c>
       <c r="L22" t="n">
         <v>621.5425426044322</v>
@@ -5923,7 +5923,7 @@
         <v>1228.469461304958</v>
       </c>
       <c r="O22" t="n">
-        <v>1499.080968044417</v>
+        <v>1499.080968044418</v>
       </c>
       <c r="P22" t="n">
         <v>1718.93614957942</v>
@@ -5932,28 +5932,28 @@
         <v>1812.915298867344</v>
       </c>
       <c r="R22" t="n">
-        <v>1770.747103835763</v>
+        <v>1770.747103835764</v>
       </c>
       <c r="S22" t="n">
         <v>1648.712001394153</v>
       </c>
       <c r="T22" t="n">
-        <v>1507.100422481115</v>
+        <v>1507.100422481116</v>
       </c>
       <c r="U22" t="n">
         <v>1301.520922615312</v>
       </c>
       <c r="V22" t="n">
-        <v>1130.403357415707</v>
+        <v>1130.403357415708</v>
       </c>
       <c r="W22" t="n">
-        <v>924.5531103850299</v>
+        <v>924.5531103850301</v>
       </c>
       <c r="X22" t="n">
-        <v>780.1304824932954</v>
+        <v>780.1304824932956</v>
       </c>
       <c r="Y22" t="n">
-        <v>642.904826356048</v>
+        <v>642.9048263560483</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1855.106759938268</v>
+        <v>1855.106759938269</v>
       </c>
       <c r="C23" t="n">
-        <v>1569.711166004139</v>
+        <v>1569.71116600414</v>
       </c>
       <c r="D23" t="n">
         <v>1295.012390403672</v>
       </c>
       <c r="E23" t="n">
-        <v>992.7910608117104</v>
+        <v>992.7910608117105</v>
       </c>
       <c r="F23" t="n">
         <v>665.3720790283858</v>
       </c>
       <c r="G23" t="n">
-        <v>332.0863737479885</v>
+        <v>332.0863737479886</v>
       </c>
       <c r="H23" t="n">
-        <v>99.83844707200689</v>
+        <v>99.83844707200683</v>
       </c>
       <c r="I23" t="n">
-        <v>72.77815389630152</v>
+        <v>72.7781538963015</v>
       </c>
       <c r="J23" t="n">
-        <v>280.9792390070018</v>
+        <v>280.9792390070019</v>
       </c>
       <c r="K23" t="n">
-        <v>713.7634992720043</v>
+        <v>713.7634992720045</v>
       </c>
       <c r="L23" t="n">
         <v>1302.947271075065</v>
@@ -5999,25 +5999,25 @@
         <v>1975.134286238097</v>
       </c>
       <c r="N23" t="n">
-        <v>2643.565992510541</v>
+        <v>2305.91468324588</v>
       </c>
       <c r="O23" t="n">
-        <v>3102.09999190999</v>
+        <v>2891.908151156684</v>
       </c>
       <c r="P23" t="n">
-        <v>3564.557476426295</v>
+        <v>3354.365635672988</v>
       </c>
       <c r="Q23" t="n">
-        <v>3624.43018726812</v>
+        <v>3624.430187268119</v>
       </c>
       <c r="R23" t="n">
-        <v>3638.907694815076</v>
+        <v>3638.907694815075</v>
       </c>
       <c r="S23" t="n">
-        <v>3571.618140172876</v>
+        <v>3571.618140172875</v>
       </c>
       <c r="T23" t="n">
-        <v>3441.414585791968</v>
+        <v>3441.414585791967</v>
       </c>
       <c r="U23" t="n">
         <v>3271.308617821553</v>
@@ -6029,7 +6029,7 @@
         <v>2754.610921220433</v>
       </c>
       <c r="X23" t="n">
-        <v>2464.712085965636</v>
+        <v>2464.712085965637</v>
       </c>
       <c r="Y23" t="n">
         <v>2158.139676996107</v>
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>980.5269825357767</v>
+        <v>980.5269825357765</v>
       </c>
       <c r="C24" t="n">
-        <v>806.0739532546497</v>
+        <v>806.0739532546495</v>
       </c>
       <c r="D24" t="n">
-        <v>657.1395435933985</v>
+        <v>657.1395435933982</v>
       </c>
       <c r="E24" t="n">
-        <v>497.9020885879429</v>
+        <v>497.9020885879428</v>
       </c>
       <c r="F24" t="n">
         <v>351.3675306148278</v>
@@ -6063,25 +6063,25 @@
         <v>114.3511122747617</v>
       </c>
       <c r="I24" t="n">
-        <v>72.77815389630152</v>
+        <v>72.7781538963015</v>
       </c>
       <c r="J24" t="n">
-        <v>78.25778919800381</v>
+        <v>78.25778919800385</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5987680794601</v>
+        <v>427.5987680794602</v>
       </c>
       <c r="L24" t="n">
-        <v>591.6032799764419</v>
+        <v>958.7352218268668</v>
       </c>
       <c r="M24" t="n">
-        <v>1263.393691051909</v>
+        <v>1525.23559422813</v>
       </c>
       <c r="N24" t="n">
-        <v>1681.318806166924</v>
+        <v>1755.964361297349</v>
       </c>
       <c r="O24" t="n">
-        <v>2260.094452397038</v>
+        <v>1944.8163114435</v>
       </c>
       <c r="P24" t="n">
         <v>2392.331725628074</v>
@@ -6099,7 +6099,7 @@
         <v>2281.874093461802</v>
       </c>
       <c r="U24" t="n">
-        <v>2053.743583486276</v>
+        <v>2053.743583486275</v>
       </c>
       <c r="V24" t="n">
         <v>1818.591475254533</v>
@@ -6108,10 +6108,10 @@
         <v>1564.354118526331</v>
       </c>
       <c r="X24" t="n">
-        <v>1356.502618320799</v>
+        <v>1356.502618320798</v>
       </c>
       <c r="Y24" t="n">
-        <v>1148.742319555845</v>
+        <v>1148.742319555844</v>
       </c>
     </row>
     <row r="25">
@@ -6121,49 +6121,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>544.8232845320914</v>
+        <v>544.8232845320913</v>
       </c>
       <c r="C25" t="n">
-        <v>459.4540246104673</v>
+        <v>459.4540246104672</v>
       </c>
       <c r="D25" t="n">
-        <v>392.9043082044143</v>
+        <v>392.9043082044142</v>
       </c>
       <c r="E25" t="n">
-        <v>328.5581376283041</v>
+        <v>328.5581376283039</v>
       </c>
       <c r="F25" t="n">
-        <v>265.2351131366765</v>
+        <v>265.2351131366764</v>
       </c>
       <c r="G25" t="n">
-        <v>180.3006728926291</v>
+        <v>180.300672892629</v>
       </c>
       <c r="H25" t="n">
-        <v>110.5507814867874</v>
+        <v>110.5507814867873</v>
       </c>
       <c r="I25" t="n">
-        <v>72.77815389630152</v>
+        <v>72.7781538963015</v>
       </c>
       <c r="J25" t="n">
-        <v>144.4723662553014</v>
+        <v>144.472366255301</v>
       </c>
       <c r="K25" t="n">
-        <v>339.4354233536155</v>
+        <v>339.4354233536152</v>
       </c>
       <c r="L25" t="n">
-        <v>621.5425426044322</v>
+        <v>621.5425426044321</v>
       </c>
       <c r="M25" t="n">
-        <v>924.9217875945544</v>
+        <v>924.9217875945538</v>
       </c>
       <c r="N25" t="n">
-        <v>1228.469461304959</v>
+        <v>1228.469461304958</v>
       </c>
       <c r="O25" t="n">
         <v>1499.080968044418</v>
       </c>
       <c r="P25" t="n">
-        <v>1718.936149579421</v>
+        <v>1718.93614957942</v>
       </c>
       <c r="Q25" t="n">
         <v>1812.915298867344</v>
@@ -6175,7 +6175,7 @@
         <v>1648.712001394153</v>
       </c>
       <c r="T25" t="n">
-        <v>1507.100422481116</v>
+        <v>1507.100422481115</v>
       </c>
       <c r="U25" t="n">
         <v>1301.520922615312</v>
@@ -6184,13 +6184,13 @@
         <v>1130.403357415708</v>
       </c>
       <c r="W25" t="n">
-        <v>924.5531103850301</v>
+        <v>924.5531103850299</v>
       </c>
       <c r="X25" t="n">
-        <v>780.1304824932956</v>
+        <v>780.1304824932954</v>
       </c>
       <c r="Y25" t="n">
-        <v>642.9048263560483</v>
+        <v>642.9048263560481</v>
       </c>
     </row>
     <row r="26">
@@ -6203,25 +6203,25 @@
         <v>1855.106759938268</v>
       </c>
       <c r="C26" t="n">
-        <v>1569.711166004139</v>
+        <v>1569.71116600414</v>
       </c>
       <c r="D26" t="n">
-        <v>1295.012390403671</v>
+        <v>1295.012390403672</v>
       </c>
       <c r="E26" t="n">
-        <v>992.7910608117095</v>
+        <v>992.7910608117105</v>
       </c>
       <c r="F26" t="n">
-        <v>665.3720790283853</v>
+        <v>665.3720790283858</v>
       </c>
       <c r="G26" t="n">
-        <v>332.0863737479881</v>
+        <v>332.0863737479886</v>
       </c>
       <c r="H26" t="n">
-        <v>99.83844707200689</v>
+        <v>99.83844707200686</v>
       </c>
       <c r="I26" t="n">
-        <v>72.77815389630152</v>
+        <v>72.7781538963015</v>
       </c>
       <c r="J26" t="n">
         <v>113.5735899866488</v>
@@ -6230,43 +6230,43 @@
         <v>546.3578502516514</v>
       </c>
       <c r="L26" t="n">
-        <v>965.295961810404</v>
+        <v>1135.541622054712</v>
       </c>
       <c r="M26" t="n">
-        <v>1637.482976973436</v>
+        <v>1807.728637217744</v>
       </c>
       <c r="N26" t="n">
-        <v>2305.914683245881</v>
+        <v>2476.160343490189</v>
       </c>
       <c r="O26" t="n">
-        <v>2891.908151156685</v>
+        <v>3062.153811400993</v>
       </c>
       <c r="P26" t="n">
-        <v>3354.365635672989</v>
+        <v>3524.611295917297</v>
       </c>
       <c r="Q26" t="n">
-        <v>3624.43018726812</v>
+        <v>3624.430187268119</v>
       </c>
       <c r="R26" t="n">
-        <v>3638.907694815076</v>
+        <v>3638.907694815075</v>
       </c>
       <c r="S26" t="n">
-        <v>3571.618140172876</v>
+        <v>3571.618140172875</v>
       </c>
       <c r="T26" t="n">
-        <v>3441.414585791968</v>
+        <v>3441.414585791967</v>
       </c>
       <c r="U26" t="n">
-        <v>3271.308617821552</v>
+        <v>3271.308617821553</v>
       </c>
       <c r="V26" t="n">
-        <v>3023.812653484264</v>
+        <v>3023.812653484265</v>
       </c>
       <c r="W26" t="n">
         <v>2754.610921220433</v>
       </c>
       <c r="X26" t="n">
-        <v>2464.712085965636</v>
+        <v>2464.712085965637</v>
       </c>
       <c r="Y26" t="n">
         <v>2158.139676996107</v>
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>980.5269825357767</v>
+        <v>980.5269825357765</v>
       </c>
       <c r="C27" t="n">
-        <v>806.0739532546497</v>
+        <v>806.0739532546495</v>
       </c>
       <c r="D27" t="n">
-        <v>657.1395435933985</v>
+        <v>657.1395435933982</v>
       </c>
       <c r="E27" t="n">
-        <v>497.9020885879429</v>
+        <v>497.9020885879428</v>
       </c>
       <c r="F27" t="n">
         <v>351.3675306148278</v>
@@ -6300,25 +6300,25 @@
         <v>114.3511122747617</v>
       </c>
       <c r="I27" t="n">
-        <v>72.77815389630152</v>
+        <v>72.7781538963015</v>
       </c>
       <c r="J27" t="n">
-        <v>203.0879141850085</v>
+        <v>203.0879141850086</v>
       </c>
       <c r="K27" t="n">
-        <v>552.4288930664648</v>
+        <v>552.4288930664649</v>
       </c>
       <c r="L27" t="n">
-        <v>765.2986905346204</v>
+        <v>1083.565346813871</v>
       </c>
       <c r="M27" t="n">
-        <v>976.041088497588</v>
+        <v>1525.23559422813</v>
       </c>
       <c r="N27" t="n">
-        <v>1681.318806166924</v>
+        <v>1755.964361297349</v>
       </c>
       <c r="O27" t="n">
-        <v>2260.094452397038</v>
+        <v>1944.8163114435</v>
       </c>
       <c r="P27" t="n">
         <v>2392.331725628074</v>
@@ -6336,7 +6336,7 @@
         <v>2281.874093461802</v>
       </c>
       <c r="U27" t="n">
-        <v>2053.743583486276</v>
+        <v>2053.743583486275</v>
       </c>
       <c r="V27" t="n">
         <v>1818.591475254533</v>
@@ -6345,10 +6345,10 @@
         <v>1564.354118526331</v>
       </c>
       <c r="X27" t="n">
-        <v>1356.502618320799</v>
+        <v>1356.502618320798</v>
       </c>
       <c r="Y27" t="n">
-        <v>1148.742319555845</v>
+        <v>1148.742319555844</v>
       </c>
     </row>
     <row r="28">
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>544.823284532091</v>
+        <v>544.8232845320914</v>
       </c>
       <c r="C28" t="n">
-        <v>459.4540246104668</v>
+        <v>459.4540246104673</v>
       </c>
       <c r="D28" t="n">
-        <v>392.9043082044139</v>
+        <v>392.9043082044143</v>
       </c>
       <c r="E28" t="n">
-        <v>328.5581376283036</v>
+        <v>328.5581376283041</v>
       </c>
       <c r="F28" t="n">
-        <v>265.235113136676</v>
+        <v>265.2351131366765</v>
       </c>
       <c r="G28" t="n">
-        <v>180.3006728926287</v>
+        <v>180.3006728926291</v>
       </c>
       <c r="H28" t="n">
-        <v>110.5507814867869</v>
+        <v>110.5507814867873</v>
       </c>
       <c r="I28" t="n">
-        <v>72.77815389630152</v>
+        <v>72.7781538963015</v>
       </c>
       <c r="J28" t="n">
-        <v>144.4723662553013</v>
+        <v>144.4723662553014</v>
       </c>
       <c r="K28" t="n">
-        <v>339.4354233536154</v>
+        <v>339.4354233536155</v>
       </c>
       <c r="L28" t="n">
         <v>621.5425426044321</v>
       </c>
       <c r="M28" t="n">
-        <v>924.9217875945537</v>
+        <v>924.9217875945538</v>
       </c>
       <c r="N28" t="n">
         <v>1228.469461304958</v>
@@ -6409,7 +6409,7 @@
         <v>1770.747103835763</v>
       </c>
       <c r="S28" t="n">
-        <v>1648.712001394153</v>
+        <v>1648.712001394152</v>
       </c>
       <c r="T28" t="n">
         <v>1507.100422481115</v>
@@ -6427,7 +6427,7 @@
         <v>780.1304824932952</v>
       </c>
       <c r="Y28" t="n">
-        <v>642.9048263560478</v>
+        <v>642.9048263560483</v>
       </c>
     </row>
     <row r="29">
@@ -6440,52 +6440,52 @@
         <v>1884.324786767166</v>
       </c>
       <c r="C29" t="n">
-        <v>1594.930077429081</v>
+        <v>1594.930077429082</v>
       </c>
       <c r="D29" t="n">
-        <v>1316.232186424658</v>
+        <v>1316.232186424659</v>
       </c>
       <c r="E29" t="n">
-        <v>1010.011741428742</v>
+        <v>1010.011741428743</v>
       </c>
       <c r="F29" t="n">
-        <v>678.5936442414622</v>
+        <v>678.5936442414628</v>
       </c>
       <c r="G29" t="n">
-        <v>341.3088235571097</v>
+        <v>341.3088235571104</v>
       </c>
       <c r="H29" t="n">
-        <v>105.061781477173</v>
+        <v>105.0617814771729</v>
       </c>
       <c r="I29" t="n">
-        <v>74.00237289751233</v>
+        <v>74.00237289751229</v>
       </c>
       <c r="J29" t="n">
-        <v>282.2034580082127</v>
+        <v>114.7978089878596</v>
       </c>
       <c r="K29" t="n">
-        <v>714.9877182732153</v>
+        <v>451.8006476148373</v>
       </c>
       <c r="L29" t="n">
-        <v>1304.171490076276</v>
+        <v>1040.984419417898</v>
       </c>
       <c r="M29" t="n">
-        <v>1976.358505239308</v>
+        <v>1713.17143458093</v>
       </c>
       <c r="N29" t="n">
-        <v>2644.790211511753</v>
+        <v>2381.603140853375</v>
       </c>
       <c r="O29" t="n">
-        <v>2953.119101217225</v>
+        <v>2967.596608764179</v>
       </c>
       <c r="P29" t="n">
-        <v>3415.57658573353</v>
+        <v>3430.054093280483</v>
       </c>
       <c r="Q29" t="n">
-        <v>3685.641137328661</v>
+        <v>3700.118644875614</v>
       </c>
       <c r="R29" t="n">
-        <v>3700.118644875616</v>
+        <v>3700.118644875614</v>
       </c>
       <c r="S29" t="n">
         <v>3628.829974829461</v>
@@ -6494,7 +6494,7 @@
         <v>3494.627305044597</v>
       </c>
       <c r="U29" t="n">
-        <v>3320.522221670227</v>
+        <v>3320.522221670226</v>
       </c>
       <c r="V29" t="n">
         <v>3069.027141928983</v>
@@ -6537,25 +6537,25 @@
         <v>115.5753312759725</v>
       </c>
       <c r="I30" t="n">
-        <v>74.00237289751233</v>
+        <v>74.00237289751229</v>
       </c>
       <c r="J30" t="n">
-        <v>204.3121331862194</v>
+        <v>204.3121331862193</v>
       </c>
       <c r="K30" t="n">
-        <v>291.8325274252229</v>
+        <v>291.8325274252228</v>
       </c>
       <c r="L30" t="n">
-        <v>766.5229095358313</v>
+        <v>822.9689811726292</v>
       </c>
       <c r="M30" t="n">
-        <v>977.2653074987991</v>
+        <v>1494.759392248097</v>
       </c>
       <c r="N30" t="n">
-        <v>1682.543025168136</v>
+        <v>1725.488159317315</v>
       </c>
       <c r="O30" t="n">
-        <v>2261.318671398249</v>
+        <v>1946.040530444711</v>
       </c>
       <c r="P30" t="n">
         <v>2393.555944629285</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>574.0413113609892</v>
+        <v>574.0413113609886</v>
       </c>
       <c r="C31" t="n">
-        <v>484.6729360354097</v>
+        <v>484.6729360354093</v>
       </c>
       <c r="D31" t="n">
-        <v>414.1241042254015</v>
+        <v>414.1241042254011</v>
       </c>
       <c r="E31" t="n">
-        <v>345.7788182453359</v>
+        <v>345.7788182453356</v>
       </c>
       <c r="F31" t="n">
-        <v>278.4566783497531</v>
+        <v>278.4566783497528</v>
       </c>
       <c r="G31" t="n">
-        <v>189.5231227017504</v>
+        <v>189.5231227017503</v>
       </c>
       <c r="H31" t="n">
-        <v>115.7741158919535</v>
+        <v>115.7741158919534</v>
       </c>
       <c r="I31" t="n">
-        <v>74.00237289751233</v>
+        <v>74.00237289751229</v>
       </c>
       <c r="J31" t="n">
         <v>141.7770522490956</v>
@@ -6625,7 +6625,7 @@
         <v>332.8205763399932</v>
       </c>
       <c r="L31" t="n">
-        <v>611.0081625833933</v>
+        <v>611.0081625833934</v>
       </c>
       <c r="M31" t="n">
         <v>910.4678745660983</v>
@@ -6643,28 +6643,28 @@
         <v>1782.783253809222</v>
       </c>
       <c r="R31" t="n">
-        <v>1736.615943373686</v>
+        <v>1736.615943373687</v>
       </c>
       <c r="S31" t="n">
-        <v>1610.58172552812</v>
+        <v>1610.581725528121</v>
       </c>
       <c r="T31" t="n">
-        <v>1464.971031211127</v>
+        <v>1464.971031211128</v>
       </c>
       <c r="U31" t="n">
-        <v>1350.734526463987</v>
+        <v>1255.392415941369</v>
       </c>
       <c r="V31" t="n">
-        <v>1175.617845860428</v>
+        <v>1080.27573533781</v>
       </c>
       <c r="W31" t="n">
-        <v>965.7684834257946</v>
+        <v>965.7684834257936</v>
       </c>
       <c r="X31" t="n">
-        <v>817.3467401301048</v>
+        <v>817.3467401301039</v>
       </c>
       <c r="Y31" t="n">
-        <v>676.1219685889014</v>
+        <v>676.1219685889007</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1855.106759938269</v>
+        <v>1855.106759938267</v>
       </c>
       <c r="C32" t="n">
-        <v>1569.71116600414</v>
+        <v>1569.711166004138</v>
       </c>
       <c r="D32" t="n">
-        <v>1295.012390403672</v>
+        <v>1295.01239040367</v>
       </c>
       <c r="E32" t="n">
-        <v>992.7910608117106</v>
+        <v>992.7910608117091</v>
       </c>
       <c r="F32" t="n">
-        <v>665.372079028386</v>
+        <v>665.3720790283844</v>
       </c>
       <c r="G32" t="n">
-        <v>332.086373747989</v>
+        <v>332.0863737479872</v>
       </c>
       <c r="H32" t="n">
-        <v>99.83844707200689</v>
+        <v>99.83844707200679</v>
       </c>
       <c r="I32" t="n">
-        <v>72.77815389630153</v>
+        <v>72.77815389630148</v>
       </c>
       <c r="J32" t="n">
-        <v>113.5735899866488</v>
+        <v>280.9792390070018</v>
       </c>
       <c r="K32" t="n">
-        <v>546.3578502516515</v>
+        <v>713.7634992720044</v>
       </c>
       <c r="L32" t="n">
-        <v>1135.541622054712</v>
+        <v>965.2959618104015</v>
       </c>
       <c r="M32" t="n">
-        <v>1807.728637217744</v>
+        <v>1637.482976973434</v>
       </c>
       <c r="N32" t="n">
-        <v>2476.160343490189</v>
+        <v>2305.914683245879</v>
       </c>
       <c r="O32" t="n">
-        <v>3062.153811400993</v>
+        <v>2891.908151156682</v>
       </c>
       <c r="P32" t="n">
-        <v>3354.36563567299</v>
+        <v>3354.365635672987</v>
       </c>
       <c r="Q32" t="n">
-        <v>3624.430187268121</v>
+        <v>3624.430187268118</v>
       </c>
       <c r="R32" t="n">
-        <v>3638.907694815076</v>
+        <v>3638.907694815074</v>
       </c>
       <c r="S32" t="n">
-        <v>3571.618140172876</v>
+        <v>3571.618140172874</v>
       </c>
       <c r="T32" t="n">
-        <v>3441.414585791968</v>
+        <v>3441.414585791965</v>
       </c>
       <c r="U32" t="n">
-        <v>3271.308617821553</v>
+        <v>3271.308617821551</v>
       </c>
       <c r="V32" t="n">
-        <v>3023.812653484265</v>
+        <v>3023.812653484263</v>
       </c>
       <c r="W32" t="n">
-        <v>2754.610921220434</v>
+        <v>2754.610921220432</v>
       </c>
       <c r="X32" t="n">
-        <v>2464.712085965637</v>
+        <v>2464.712085965635</v>
       </c>
       <c r="Y32" t="n">
-        <v>2158.139676996107</v>
+        <v>2158.139676996106</v>
       </c>
     </row>
     <row r="33">
@@ -6753,43 +6753,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>980.5269825357767</v>
+        <v>980.5269825357765</v>
       </c>
       <c r="C33" t="n">
-        <v>806.0739532546497</v>
+        <v>806.0739532546495</v>
       </c>
       <c r="D33" t="n">
-        <v>657.1395435933985</v>
+        <v>657.1395435933982</v>
       </c>
       <c r="E33" t="n">
-        <v>497.9020885879429</v>
+        <v>497.9020885879428</v>
       </c>
       <c r="F33" t="n">
-        <v>351.3675306148278</v>
+        <v>351.3675306148277</v>
       </c>
       <c r="G33" t="n">
         <v>214.0519511763324</v>
       </c>
       <c r="H33" t="n">
-        <v>114.3511122747617</v>
+        <v>114.3511122747616</v>
       </c>
       <c r="I33" t="n">
-        <v>72.77815389630153</v>
+        <v>72.77815389630148</v>
       </c>
       <c r="J33" t="n">
-        <v>78.25778919800385</v>
+        <v>203.0879141850085</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5987680794601</v>
+        <v>552.4288930664648</v>
       </c>
       <c r="L33" t="n">
-        <v>839.9442456650445</v>
+        <v>1083.565346813871</v>
       </c>
       <c r="M33" t="n">
-        <v>1050.686643628012</v>
+        <v>1294.307744776839</v>
       </c>
       <c r="N33" t="n">
-        <v>1755.964361297349</v>
+        <v>1525.036511846057</v>
       </c>
       <c r="O33" t="n">
         <v>1944.8163114435</v>
@@ -6810,7 +6810,7 @@
         <v>2281.874093461802</v>
       </c>
       <c r="U33" t="n">
-        <v>2053.743583486276</v>
+        <v>2053.743583486275</v>
       </c>
       <c r="V33" t="n">
         <v>1818.591475254533</v>
@@ -6819,10 +6819,10 @@
         <v>1564.354118526331</v>
       </c>
       <c r="X33" t="n">
-        <v>1356.502618320799</v>
+        <v>1356.502618320798</v>
       </c>
       <c r="Y33" t="n">
-        <v>1148.742319555845</v>
+        <v>1148.742319555844</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>544.8232845320913</v>
+        <v>544.8232845320908</v>
       </c>
       <c r="C34" t="n">
-        <v>459.4540246104672</v>
+        <v>459.4540246104668</v>
       </c>
       <c r="D34" t="n">
-        <v>392.9043082044143</v>
+        <v>392.904308204414</v>
       </c>
       <c r="E34" t="n">
-        <v>328.558137628304</v>
+        <v>328.5581376283037</v>
       </c>
       <c r="F34" t="n">
-        <v>265.2351131366764</v>
+        <v>265.2351131366762</v>
       </c>
       <c r="G34" t="n">
-        <v>180.3006728926291</v>
+        <v>180.3006728926289</v>
       </c>
       <c r="H34" t="n">
         <v>110.5507814867873</v>
       </c>
       <c r="I34" t="n">
-        <v>72.77815389630153</v>
+        <v>72.77815389630148</v>
       </c>
       <c r="J34" t="n">
         <v>144.4723662553014</v>
@@ -6862,7 +6862,7 @@
         <v>339.4354233536156</v>
       </c>
       <c r="L34" t="n">
-        <v>621.5425426044324</v>
+        <v>621.5425426044322</v>
       </c>
       <c r="M34" t="n">
         <v>924.921787594554</v>
@@ -6871,7 +6871,7 @@
         <v>1228.469461304958</v>
       </c>
       <c r="O34" t="n">
-        <v>1499.080968044418</v>
+        <v>1499.080968044417</v>
       </c>
       <c r="P34" t="n">
         <v>1718.93614957942</v>
@@ -6901,7 +6901,7 @@
         <v>780.1304824932952</v>
       </c>
       <c r="Y34" t="n">
-        <v>642.9048263560481</v>
+        <v>642.9048263560477</v>
       </c>
     </row>
     <row r="35">
@@ -6920,64 +6920,64 @@
         <v>1295.012390403671</v>
       </c>
       <c r="E35" t="n">
-        <v>992.7910608117096</v>
+        <v>992.7910608117097</v>
       </c>
       <c r="F35" t="n">
-        <v>665.3720790283849</v>
+        <v>665.3720790283851</v>
       </c>
       <c r="G35" t="n">
         <v>332.0863737479876</v>
       </c>
       <c r="H35" t="n">
-        <v>99.83844707200679</v>
+        <v>99.83844707200682</v>
       </c>
       <c r="I35" t="n">
-        <v>72.77815389630148</v>
+        <v>72.7781538963015</v>
       </c>
       <c r="J35" t="n">
-        <v>113.5735899866488</v>
+        <v>280.9792390070019</v>
       </c>
       <c r="K35" t="n">
-        <v>546.3578502516514</v>
+        <v>713.7634992720045</v>
       </c>
       <c r="L35" t="n">
-        <v>1135.541622054712</v>
+        <v>965.2959618104029</v>
       </c>
       <c r="M35" t="n">
-        <v>1807.728637217744</v>
+        <v>1637.482976973435</v>
       </c>
       <c r="N35" t="n">
-        <v>2476.160343490189</v>
+        <v>2305.91468324588</v>
       </c>
       <c r="O35" t="n">
-        <v>2891.908151156682</v>
+        <v>2891.908151156684</v>
       </c>
       <c r="P35" t="n">
-        <v>3354.365635672987</v>
+        <v>3354.365635672988</v>
       </c>
       <c r="Q35" t="n">
-        <v>3624.430187268118</v>
+        <v>3624.430187268119</v>
       </c>
       <c r="R35" t="n">
-        <v>3638.907694815074</v>
+        <v>3638.907694815075</v>
       </c>
       <c r="S35" t="n">
-        <v>3571.618140172874</v>
+        <v>3571.618140172875</v>
       </c>
       <c r="T35" t="n">
-        <v>3441.414585791965</v>
+        <v>3441.414585791967</v>
       </c>
       <c r="U35" t="n">
-        <v>3271.308617821551</v>
+        <v>3271.308617821552</v>
       </c>
       <c r="V35" t="n">
-        <v>3023.812653484263</v>
+        <v>3023.812653484264</v>
       </c>
       <c r="W35" t="n">
-        <v>2754.610921220432</v>
+        <v>2754.610921220433</v>
       </c>
       <c r="X35" t="n">
-        <v>2464.712085965635</v>
+        <v>2464.712085965636</v>
       </c>
       <c r="Y35" t="n">
         <v>2158.139676996107</v>
@@ -7002,37 +7002,37 @@
         <v>497.9020885879428</v>
       </c>
       <c r="F36" t="n">
-        <v>351.3675306148277</v>
+        <v>351.3675306148278</v>
       </c>
       <c r="G36" t="n">
         <v>214.0519511763324</v>
       </c>
       <c r="H36" t="n">
-        <v>114.3511122747616</v>
+        <v>114.3511122747617</v>
       </c>
       <c r="I36" t="n">
-        <v>72.77815389630148</v>
+        <v>72.7781538963015</v>
       </c>
       <c r="J36" t="n">
-        <v>78.25778919800379</v>
+        <v>203.0879141850086</v>
       </c>
       <c r="K36" t="n">
-        <v>165.7781834370073</v>
+        <v>552.4288930664649</v>
       </c>
       <c r="L36" t="n">
-        <v>696.9146371844138</v>
+        <v>1083.565346813871</v>
       </c>
       <c r="M36" t="n">
-        <v>1368.705048259882</v>
+        <v>1294.307744776839</v>
       </c>
       <c r="N36" t="n">
-        <v>2073.982765929218</v>
+        <v>1755.964361297349</v>
       </c>
       <c r="O36" t="n">
-        <v>2468.070967255529</v>
+        <v>1944.8163114435</v>
       </c>
       <c r="P36" t="n">
-        <v>2600.308240486565</v>
+        <v>2392.331725628074</v>
       </c>
       <c r="Q36" t="n">
         <v>2638.786159238304</v>
@@ -7072,37 +7072,37 @@
         <v>544.8232845320911</v>
       </c>
       <c r="C37" t="n">
-        <v>459.4540246104671</v>
+        <v>459.4540246104669</v>
       </c>
       <c r="D37" t="n">
-        <v>392.9043082044142</v>
+        <v>392.9043082044141</v>
       </c>
       <c r="E37" t="n">
-        <v>328.5581376283039</v>
+        <v>328.5581376283038</v>
       </c>
       <c r="F37" t="n">
-        <v>265.2351131366764</v>
+        <v>265.2351131366763</v>
       </c>
       <c r="G37" t="n">
-        <v>180.3006728926291</v>
+        <v>180.300672892629</v>
       </c>
       <c r="H37" t="n">
         <v>110.5507814867873</v>
       </c>
       <c r="I37" t="n">
-        <v>72.77815389630148</v>
+        <v>72.7781538963015</v>
       </c>
       <c r="J37" t="n">
-        <v>144.4723662553014</v>
+        <v>144.4723662553006</v>
       </c>
       <c r="K37" t="n">
-        <v>339.4354233536156</v>
+        <v>339.4354233536148</v>
       </c>
       <c r="L37" t="n">
-        <v>621.5425426044324</v>
+        <v>621.5425426044316</v>
       </c>
       <c r="M37" t="n">
-        <v>924.9217875945541</v>
+        <v>924.9217875945533</v>
       </c>
       <c r="N37" t="n">
         <v>1228.469461304958</v>
@@ -7117,7 +7117,7 @@
         <v>1812.915298867344</v>
       </c>
       <c r="R37" t="n">
-        <v>1770.747103835764</v>
+        <v>1770.747103835763</v>
       </c>
       <c r="S37" t="n">
         <v>1648.712001394153</v>
@@ -7129,7 +7129,7 @@
         <v>1301.520922615312</v>
       </c>
       <c r="V37" t="n">
-        <v>1130.403357415708</v>
+        <v>1130.403357415707</v>
       </c>
       <c r="W37" t="n">
         <v>924.5531103850296</v>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1855.106759938268</v>
+        <v>1855.106759938267</v>
       </c>
       <c r="C38" t="n">
         <v>1569.711166004139</v>
@@ -7157,64 +7157,64 @@
         <v>1295.012390403671</v>
       </c>
       <c r="E38" t="n">
-        <v>992.7910608117099</v>
+        <v>992.7910608117098</v>
       </c>
       <c r="F38" t="n">
-        <v>665.3720790283858</v>
+        <v>665.3720790283852</v>
       </c>
       <c r="G38" t="n">
-        <v>332.0863737479885</v>
+        <v>332.0863737479881</v>
       </c>
       <c r="H38" t="n">
-        <v>99.83844707200689</v>
+        <v>99.83844707200672</v>
       </c>
       <c r="I38" t="n">
-        <v>72.77815389630152</v>
+        <v>72.77815389630148</v>
       </c>
       <c r="J38" t="n">
-        <v>280.9792390070019</v>
+        <v>280.9792390070018</v>
       </c>
       <c r="K38" t="n">
-        <v>713.7634992720045</v>
+        <v>713.7634992720044</v>
       </c>
       <c r="L38" t="n">
-        <v>965.2959618104038</v>
+        <v>1302.947271075065</v>
       </c>
       <c r="M38" t="n">
-        <v>1637.482976973436</v>
+        <v>1975.134286238097</v>
       </c>
       <c r="N38" t="n">
-        <v>2305.914683245881</v>
+        <v>2643.565992510542</v>
       </c>
       <c r="O38" t="n">
-        <v>2891.908151156685</v>
+        <v>2891.908151156682</v>
       </c>
       <c r="P38" t="n">
-        <v>3354.365635672989</v>
+        <v>3354.365635672987</v>
       </c>
       <c r="Q38" t="n">
-        <v>3624.43018726812</v>
+        <v>3624.430187268118</v>
       </c>
       <c r="R38" t="n">
-        <v>3638.907694815076</v>
+        <v>3638.907694815074</v>
       </c>
       <c r="S38" t="n">
-        <v>3571.618140172876</v>
+        <v>3571.618140172875</v>
       </c>
       <c r="T38" t="n">
-        <v>3441.414585791968</v>
+        <v>3441.414585791965</v>
       </c>
       <c r="U38" t="n">
-        <v>3271.308617821553</v>
+        <v>3271.308617821551</v>
       </c>
       <c r="V38" t="n">
-        <v>3023.812653484265</v>
+        <v>3023.812653484263</v>
       </c>
       <c r="W38" t="n">
-        <v>2754.610921220433</v>
+        <v>2754.610921220432</v>
       </c>
       <c r="X38" t="n">
-        <v>2464.712085965636</v>
+        <v>2464.712085965635</v>
       </c>
       <c r="Y38" t="n">
         <v>2158.139676996107</v>
@@ -7227,46 +7227,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>980.5269825357767</v>
+        <v>980.5269825357765</v>
       </c>
       <c r="C39" t="n">
-        <v>806.0739532546497</v>
+        <v>806.0739532546495</v>
       </c>
       <c r="D39" t="n">
-        <v>657.1395435933985</v>
+        <v>657.1395435933982</v>
       </c>
       <c r="E39" t="n">
-        <v>497.9020885879429</v>
+        <v>497.9020885879428</v>
       </c>
       <c r="F39" t="n">
-        <v>351.3675306148278</v>
+        <v>351.3675306148277</v>
       </c>
       <c r="G39" t="n">
         <v>214.0519511763324</v>
       </c>
       <c r="H39" t="n">
-        <v>114.3511122747617</v>
+        <v>114.3511122747616</v>
       </c>
       <c r="I39" t="n">
-        <v>72.77815389630152</v>
+        <v>72.77815389630148</v>
       </c>
       <c r="J39" t="n">
-        <v>78.25778919800383</v>
+        <v>203.0879141850085</v>
       </c>
       <c r="K39" t="n">
-        <v>247.6631742748317</v>
+        <v>552.4288930664648</v>
       </c>
       <c r="L39" t="n">
-        <v>778.7996280222382</v>
+        <v>1083.565346813871</v>
       </c>
       <c r="M39" t="n">
-        <v>1450.590039097706</v>
+        <v>1525.23559422813</v>
       </c>
       <c r="N39" t="n">
-        <v>1681.318806166924</v>
+        <v>1755.964361297349</v>
       </c>
       <c r="O39" t="n">
-        <v>2260.094452397038</v>
+        <v>1944.8163114435</v>
       </c>
       <c r="P39" t="n">
         <v>2392.331725628074</v>
@@ -7284,7 +7284,7 @@
         <v>2281.874093461802</v>
       </c>
       <c r="U39" t="n">
-        <v>2053.743583486276</v>
+        <v>2053.743583486275</v>
       </c>
       <c r="V39" t="n">
         <v>1818.591475254533</v>
@@ -7293,10 +7293,10 @@
         <v>1564.354118526331</v>
       </c>
       <c r="X39" t="n">
-        <v>1356.502618320799</v>
+        <v>1356.502618320798</v>
       </c>
       <c r="Y39" t="n">
-        <v>1148.742319555845</v>
+        <v>1148.742319555844</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>544.8232845320915</v>
+        <v>544.8232845320905</v>
       </c>
       <c r="C40" t="n">
-        <v>459.4540246104673</v>
+        <v>459.4540246104665</v>
       </c>
       <c r="D40" t="n">
-        <v>392.9043082044144</v>
+        <v>392.9043082044137</v>
       </c>
       <c r="E40" t="n">
-        <v>328.5581376283041</v>
+        <v>328.5581376283035</v>
       </c>
       <c r="F40" t="n">
-        <v>265.2351131366765</v>
+        <v>265.2351131366761</v>
       </c>
       <c r="G40" t="n">
-        <v>180.3006728926291</v>
+        <v>180.3006728926288</v>
       </c>
       <c r="H40" t="n">
-        <v>110.5507814867874</v>
+        <v>110.5507814867872</v>
       </c>
       <c r="I40" t="n">
-        <v>72.77815389630152</v>
+        <v>72.77815389630148</v>
       </c>
       <c r="J40" t="n">
-        <v>144.4723662553014</v>
+        <v>144.4723662553015</v>
       </c>
       <c r="K40" t="n">
-        <v>339.4354233536155</v>
+        <v>339.4354233536133</v>
       </c>
       <c r="L40" t="n">
-        <v>621.5425426044322</v>
+        <v>621.5425426044301</v>
       </c>
       <c r="M40" t="n">
-        <v>924.921787594554</v>
+        <v>924.9217875945519</v>
       </c>
       <c r="N40" t="n">
-        <v>1228.469461304959</v>
+        <v>1228.469461304956</v>
       </c>
       <c r="O40" t="n">
-        <v>1499.080968044418</v>
+        <v>1499.080968044416</v>
       </c>
       <c r="P40" t="n">
-        <v>1718.936149579421</v>
+        <v>1718.936149579418</v>
       </c>
       <c r="Q40" t="n">
-        <v>1812.915298867345</v>
+        <v>1812.915298867342</v>
       </c>
       <c r="R40" t="n">
-        <v>1770.747103835764</v>
+        <v>1770.747103835762</v>
       </c>
       <c r="S40" t="n">
-        <v>1648.712001394154</v>
+        <v>1648.712001394151</v>
       </c>
       <c r="T40" t="n">
-        <v>1507.100422481116</v>
+        <v>1507.100422481114</v>
       </c>
       <c r="U40" t="n">
-        <v>1301.520922615312</v>
+        <v>1301.520922615311</v>
       </c>
       <c r="V40" t="n">
-        <v>1130.403357415708</v>
+        <v>1130.403357415707</v>
       </c>
       <c r="W40" t="n">
-        <v>924.5531103850304</v>
+        <v>924.5531103850287</v>
       </c>
       <c r="X40" t="n">
-        <v>780.1304824932959</v>
+        <v>780.1304824932944</v>
       </c>
       <c r="Y40" t="n">
-        <v>642.9048263560485</v>
+        <v>642.9048263560472</v>
       </c>
     </row>
     <row r="41">
@@ -7394,52 +7394,52 @@
         <v>1295.012390403671</v>
       </c>
       <c r="E41" t="n">
-        <v>992.7910608117103</v>
+        <v>992.7910608117096</v>
       </c>
       <c r="F41" t="n">
-        <v>665.3720790283855</v>
+        <v>665.3720790283849</v>
       </c>
       <c r="G41" t="n">
-        <v>332.0863737479883</v>
+        <v>332.0863737479876</v>
       </c>
       <c r="H41" t="n">
-        <v>99.83844707200687</v>
+        <v>99.83844707200679</v>
       </c>
       <c r="I41" t="n">
-        <v>72.77815389630152</v>
+        <v>72.77815389630148</v>
       </c>
       <c r="J41" t="n">
-        <v>280.9792390070019</v>
+        <v>280.9792390070018</v>
       </c>
       <c r="K41" t="n">
-        <v>713.7634992720045</v>
+        <v>713.7634992720044</v>
       </c>
       <c r="L41" t="n">
         <v>1302.947271075065</v>
       </c>
       <c r="M41" t="n">
-        <v>1975.134286238097</v>
+        <v>1637.482976973434</v>
       </c>
       <c r="N41" t="n">
-        <v>2305.914683245881</v>
+        <v>2305.914683245879</v>
       </c>
       <c r="O41" t="n">
-        <v>2891.908151156685</v>
+        <v>2891.908151156682</v>
       </c>
       <c r="P41" t="n">
-        <v>3354.365635672989</v>
+        <v>3354.365635672987</v>
       </c>
       <c r="Q41" t="n">
-        <v>3624.43018726812</v>
+        <v>3624.430187268118</v>
       </c>
       <c r="R41" t="n">
-        <v>3638.907694815076</v>
+        <v>3638.907694815074</v>
       </c>
       <c r="S41" t="n">
-        <v>3571.618140172876</v>
+        <v>3571.618140172874</v>
       </c>
       <c r="T41" t="n">
-        <v>3441.414585791967</v>
+        <v>3441.414585791966</v>
       </c>
       <c r="U41" t="n">
         <v>3271.308617821552</v>
@@ -7464,43 +7464,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>980.5269825357767</v>
+        <v>980.5269825357765</v>
       </c>
       <c r="C42" t="n">
-        <v>806.0739532546497</v>
+        <v>806.0739532546495</v>
       </c>
       <c r="D42" t="n">
-        <v>657.1395435933985</v>
+        <v>657.1395435933982</v>
       </c>
       <c r="E42" t="n">
-        <v>497.9020885879429</v>
+        <v>497.9020885879428</v>
       </c>
       <c r="F42" t="n">
-        <v>351.3675306148278</v>
+        <v>351.3675306148277</v>
       </c>
       <c r="G42" t="n">
         <v>214.0519511763324</v>
       </c>
       <c r="H42" t="n">
-        <v>114.3511122747617</v>
+        <v>114.3511122747616</v>
       </c>
       <c r="I42" t="n">
-        <v>72.77815389630152</v>
+        <v>72.77815389630148</v>
       </c>
       <c r="J42" t="n">
-        <v>78.25778919800383</v>
+        <v>203.0879141850085</v>
       </c>
       <c r="K42" t="n">
-        <v>165.7781834370073</v>
+        <v>552.4288930664648</v>
       </c>
       <c r="L42" t="n">
-        <v>463.5214870687004</v>
+        <v>1083.565346813871</v>
       </c>
       <c r="M42" t="n">
-        <v>1135.311898144168</v>
+        <v>1294.307744776839</v>
       </c>
       <c r="N42" t="n">
-        <v>1366.040665213386</v>
+        <v>1755.964361297349</v>
       </c>
       <c r="O42" t="n">
         <v>1944.8163114435</v>
@@ -7521,7 +7521,7 @@
         <v>2281.874093461802</v>
       </c>
       <c r="U42" t="n">
-        <v>2053.743583486276</v>
+        <v>2053.743583486275</v>
       </c>
       <c r="V42" t="n">
         <v>1818.591475254533</v>
@@ -7530,10 +7530,10 @@
         <v>1564.354118526331</v>
       </c>
       <c r="X42" t="n">
-        <v>1356.502618320799</v>
+        <v>1356.502618320798</v>
       </c>
       <c r="Y42" t="n">
-        <v>1148.742319555845</v>
+        <v>1148.742319555844</v>
       </c>
     </row>
     <row r="43">
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>544.8232845320913</v>
+        <v>544.8232845320911</v>
       </c>
       <c r="C43" t="n">
-        <v>459.4540246104672</v>
+        <v>459.4540246104671</v>
       </c>
       <c r="D43" t="n">
-        <v>392.9043082044143</v>
+        <v>392.9043082044142</v>
       </c>
       <c r="E43" t="n">
-        <v>328.558137628304</v>
+        <v>328.5581376283039</v>
       </c>
       <c r="F43" t="n">
         <v>265.2351131366764</v>
@@ -7564,22 +7564,22 @@
         <v>110.5507814867873</v>
       </c>
       <c r="I43" t="n">
-        <v>72.77815389630152</v>
+        <v>72.77815389630148</v>
       </c>
       <c r="J43" t="n">
-        <v>144.4723662553017</v>
+        <v>144.4723662553012</v>
       </c>
       <c r="K43" t="n">
-        <v>339.4354233536159</v>
+        <v>339.4354233536154</v>
       </c>
       <c r="L43" t="n">
-        <v>621.5425426044328</v>
+        <v>621.5425426044322</v>
       </c>
       <c r="M43" t="n">
-        <v>924.9217875945544</v>
+        <v>924.921787594554</v>
       </c>
       <c r="N43" t="n">
-        <v>1228.469461304959</v>
+        <v>1228.469461304958</v>
       </c>
       <c r="O43" t="n">
         <v>1499.080968044418</v>
@@ -7588,16 +7588,16 @@
         <v>1718.936149579421</v>
       </c>
       <c r="Q43" t="n">
-        <v>1812.915298867345</v>
+        <v>1812.915298867344</v>
       </c>
       <c r="R43" t="n">
         <v>1770.747103835764</v>
       </c>
       <c r="S43" t="n">
-        <v>1648.712001394154</v>
+        <v>1648.712001394153</v>
       </c>
       <c r="T43" t="n">
-        <v>1507.100422481116</v>
+        <v>1507.100422481115</v>
       </c>
       <c r="U43" t="n">
         <v>1301.520922615312</v>
@@ -7606,13 +7606,13 @@
         <v>1130.403357415708</v>
       </c>
       <c r="W43" t="n">
-        <v>924.5531103850301</v>
+        <v>924.5531103850296</v>
       </c>
       <c r="X43" t="n">
-        <v>780.1304824932956</v>
+        <v>780.1304824932952</v>
       </c>
       <c r="Y43" t="n">
-        <v>642.9048263560481</v>
+        <v>642.9048263560479</v>
       </c>
     </row>
     <row r="44">
@@ -7631,7 +7631,7 @@
         <v>1295.012390403671</v>
       </c>
       <c r="E44" t="n">
-        <v>992.7910608117101</v>
+        <v>992.7910608117099</v>
       </c>
       <c r="F44" t="n">
         <v>665.3720790283853</v>
@@ -7640,34 +7640,34 @@
         <v>332.0863737479881</v>
       </c>
       <c r="H44" t="n">
-        <v>99.83844707200683</v>
+        <v>99.83844707200682</v>
       </c>
       <c r="I44" t="n">
-        <v>72.77815389630149</v>
+        <v>72.7781538963015</v>
       </c>
       <c r="J44" t="n">
-        <v>280.9792390070019</v>
+        <v>167.9972780426012</v>
       </c>
       <c r="K44" t="n">
-        <v>713.7634992720045</v>
+        <v>600.7815383076038</v>
       </c>
       <c r="L44" t="n">
-        <v>965.2959618104024</v>
+        <v>1189.965310110664</v>
       </c>
       <c r="M44" t="n">
-        <v>1637.482976973434</v>
+        <v>1862.152325273696</v>
       </c>
       <c r="N44" t="n">
-        <v>2305.91468324588</v>
+        <v>2530.584031546141</v>
       </c>
       <c r="O44" t="n">
-        <v>2891.908151156683</v>
+        <v>3116.577499456945</v>
       </c>
       <c r="P44" t="n">
-        <v>3354.365635672988</v>
+        <v>3579.03498397325</v>
       </c>
       <c r="Q44" t="n">
-        <v>3624.430187268119</v>
+        <v>3638.907694815075</v>
       </c>
       <c r="R44" t="n">
         <v>3638.907694815075</v>
@@ -7679,10 +7679,10 @@
         <v>3441.414585791967</v>
       </c>
       <c r="U44" t="n">
-        <v>3271.308617821553</v>
+        <v>3271.308617821552</v>
       </c>
       <c r="V44" t="n">
-        <v>3023.812653484265</v>
+        <v>3023.812653484264</v>
       </c>
       <c r="W44" t="n">
         <v>2754.610921220433</v>
@@ -7722,22 +7722,22 @@
         <v>114.3511122747617</v>
       </c>
       <c r="I45" t="n">
-        <v>72.77815389630149</v>
+        <v>72.7781538963015</v>
       </c>
       <c r="J45" t="n">
-        <v>203.0879141850085</v>
+        <v>203.0879141850086</v>
       </c>
       <c r="K45" t="n">
-        <v>299.5169751717185</v>
+        <v>552.4288930664649</v>
       </c>
       <c r="L45" t="n">
-        <v>463.5214870687004</v>
+        <v>1083.565346813871</v>
       </c>
       <c r="M45" t="n">
-        <v>1135.311898144168</v>
+        <v>1525.23559422813</v>
       </c>
       <c r="N45" t="n">
-        <v>1366.040665213386</v>
+        <v>1755.964361297349</v>
       </c>
       <c r="O45" t="n">
         <v>1944.8163114435</v>
@@ -7780,46 +7780,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>544.8232845320915</v>
+        <v>544.8232845320911</v>
       </c>
       <c r="C46" t="n">
-        <v>459.4540246104674</v>
+        <v>459.4540246104669</v>
       </c>
       <c r="D46" t="n">
-        <v>392.9043082044145</v>
+        <v>392.9043082044141</v>
       </c>
       <c r="E46" t="n">
-        <v>328.5581376283042</v>
+        <v>328.5581376283038</v>
       </c>
       <c r="F46" t="n">
-        <v>265.2351131366767</v>
+        <v>265.2351131366763</v>
       </c>
       <c r="G46" t="n">
-        <v>180.3006728926293</v>
+        <v>180.300672892629</v>
       </c>
       <c r="H46" t="n">
         <v>110.5507814867873</v>
       </c>
       <c r="I46" t="n">
-        <v>72.77815389630149</v>
+        <v>72.7781538963015</v>
       </c>
       <c r="J46" t="n">
-        <v>144.4723662553015</v>
+        <v>144.4723662553006</v>
       </c>
       <c r="K46" t="n">
-        <v>339.4354233536156</v>
+        <v>339.4354233536148</v>
       </c>
       <c r="L46" t="n">
-        <v>621.5425426044324</v>
+        <v>621.5425426044316</v>
       </c>
       <c r="M46" t="n">
-        <v>924.921787594554</v>
+        <v>924.9217875945533</v>
       </c>
       <c r="N46" t="n">
         <v>1228.469461304958</v>
       </c>
       <c r="O46" t="n">
-        <v>1499.080968044418</v>
+        <v>1499.080968044417</v>
       </c>
       <c r="P46" t="n">
         <v>1718.93614957942</v>
@@ -7828,7 +7828,7 @@
         <v>1812.915298867344</v>
       </c>
       <c r="R46" t="n">
-        <v>1770.747103835764</v>
+        <v>1770.747103835763</v>
       </c>
       <c r="S46" t="n">
         <v>1648.712001394153</v>
@@ -7840,16 +7840,16 @@
         <v>1301.520922615312</v>
       </c>
       <c r="V46" t="n">
-        <v>1130.403357415708</v>
+        <v>1130.403357415707</v>
       </c>
       <c r="W46" t="n">
-        <v>924.5531103850301</v>
+        <v>924.5531103850296</v>
       </c>
       <c r="X46" t="n">
-        <v>780.1304824932956</v>
+        <v>780.1304824932952</v>
       </c>
       <c r="Y46" t="n">
-        <v>642.9048263560484</v>
+        <v>642.9048263560479</v>
       </c>
     </row>
   </sheetData>
@@ -8456,16 +8456,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>250.4508600602684</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>245.6489707424078</v>
+        <v>245.0306783175538</v>
       </c>
       <c r="N8" t="n">
         <v>244.715801111726</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>245.4009489368218</v>
       </c>
       <c r="P8" t="n">
         <v>246.5357332704046</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>153.144176489494</v>
       </c>
       <c r="L9" t="n">
         <v>153.8571172950092</v>
@@ -8547,7 +8547,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>149.2771449294653</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8620,10 +8620,10 @@
         <v>154.2285214627401</v>
       </c>
       <c r="N10" t="n">
-        <v>142.3699895555143</v>
+        <v>142.9882819803682</v>
       </c>
       <c r="O10" t="n">
-        <v>153.7592759669778</v>
+        <v>153.1409835421239</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8699,19 +8699,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>96.28499586182193</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>207.6755152781496</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>51.09267487605769</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,10 +8772,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.3957355446633</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>233.2604539912033</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8933,7 +8933,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>108.4516049426703</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8945,7 +8945,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>40.34967728181569</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>82.71211195739855</v>
+        <v>166.6983643528385</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9167,10 +9167,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>398.3979941717711</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>108.4516049426698</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9179,7 +9179,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9249,16 +9249,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>157.8609033544113</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>233.2604539912034</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9404,7 +9404,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>288.9142766601937</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9416,7 +9416,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>193.0517702812247</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,10 +9486,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>359.351489331612</v>
       </c>
       <c r="N21" t="n">
-        <v>233.2604539912037</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9647,16 +9647,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>96.28499586182011</v>
       </c>
       <c r="O23" t="n">
-        <v>252.053243372488</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9720,19 +9720,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>359.3514893316117</v>
       </c>
       <c r="N24" t="n">
-        <v>189.0872202482794</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>245.695901172362</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9893,7 +9893,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>40.34967728181478</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9957,19 +9957,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>49.35887431431698</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>233.2604539912033</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>227.396501825685</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10124,7 +10124,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>100.3309103482686</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>51.09267487605769</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,19 +10194,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>313.8241113268955</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>32.02062725378215</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>76.59928600028556</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10364,7 +10364,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>149.8333947933941</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10425,22 +10425,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>250.8494602915177</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>233.2604539912034</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>76.59928600028684</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10598,7 +10598,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>208.8348678846541</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>233.2604539912034</v>
       </c>
       <c r="O36" t="n">
-        <v>207.3093446264238</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>76.59928600028775</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10835,7 +10835,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>39.73825271258039</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10899,25 +10899,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>82.71211195739841</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>233.2604539912033</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11066,10 +11066,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>108.4516049426677</v>
       </c>
       <c r="N41" t="n">
-        <v>96.2849958618213</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11136,22 +11136,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>135.0896886209204</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>233.2604539912034</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>54.97342227873976</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>76.59928600028638</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11315,10 +11315,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>51.09267487605769</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,19 +11376,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>8.998653280511618</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>233.2604539912033</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23258,16 +23258,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>351.1914470195022</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>367.8489253207565</v>
       </c>
       <c r="F11" t="n">
-        <v>392.7946009902062</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>135.2664681204924</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>166.5265422941129</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>335.1595239659078</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>310.7067630304609</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>165.7505354304321</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>134.534028266707</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>131.339603271426</v>
+        <v>131.3396032714259</v>
       </c>
       <c r="G13" t="n">
-        <v>152.7349048663216</v>
+        <v>52.1094353019872</v>
       </c>
       <c r="H13" t="n">
         <v>137.702201516498</v>
       </c>
       <c r="I13" t="n">
-        <v>106.0447103392957</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>110.3963221059793</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.4645604419093</v>
       </c>
       <c r="T13" t="n">
-        <v>208.8452721486218</v>
+        <v>208.8452721486217</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>272.1735138918602</v>
       </c>
       <c r="V13" t="n">
-        <v>238.0561985723228</v>
+        <v>238.0561985723227</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.4415535850857</v>
       </c>
       <c r="X13" t="n">
-        <v>211.6282106375319</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.1684081079908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>364.6932726620596</v>
       </c>
       <c r="C14" t="n">
-        <v>244.5163389036008</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>394.6435330023922</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6161321840208</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>91.4803750187473</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>131.3073438705765</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>331.200399715992</v>
+        <v>88.26314788658107</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>128.3933936451482</v>
       </c>
       <c r="F16" t="n">
-        <v>127.3804790215103</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>148.7757806164059</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>106.4371978560635</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>52.1136229071978</v>
+        <v>73.05690407264377</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-1.56319401867222e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -24892,13 +24892,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>94.38868941739237</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>94.38868941739061</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>245782.9016151115</v>
+        <v>245782.9016151114</v>
       </c>
       <c r="C2" t="n">
-        <v>245782.9016151115</v>
+        <v>245782.9016151114</v>
       </c>
       <c r="D2" t="n">
         <v>246312.530959285</v>
@@ -26323,7 +26323,7 @@
         <v>209938.1715242576</v>
       </c>
       <c r="F2" t="n">
-        <v>212035.9283943825</v>
+        <v>212035.9283943826</v>
       </c>
       <c r="G2" t="n">
         <v>246312.5309592847</v>
@@ -26344,7 +26344,7 @@
         <v>246312.5309592847</v>
       </c>
       <c r="M2" t="n">
-        <v>246312.5309592847</v>
+        <v>246312.5309592846</v>
       </c>
       <c r="N2" t="n">
         <v>246312.5309592847</v>
@@ -26372,34 +26372,34 @@
         <v>4753.489354326401</v>
       </c>
       <c r="E3" t="n">
-        <v>801645.6723585434</v>
+        <v>801645.6723585436</v>
       </c>
       <c r="F3" t="n">
-        <v>3167.299399932585</v>
+        <v>3167.299399932524</v>
       </c>
       <c r="G3" t="n">
         <v>51752.54781983919</v>
       </c>
       <c r="H3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11265.15580120419</v>
+        <v>11265.15580120426</v>
       </c>
       <c r="K3" t="n">
-        <v>3938.434948795277</v>
+        <v>3938.434948795219</v>
       </c>
       <c r="L3" t="n">
-        <v>54919.84721977179</v>
+        <v>54919.84721977177</v>
       </c>
       <c r="M3" t="n">
-        <v>222894.0848949522</v>
+        <v>222894.0848949524</v>
       </c>
       <c r="N3" t="n">
-        <v>9.375014542456483e-11</v>
+        <v>5.684341886080801e-11</v>
       </c>
       <c r="O3" t="n">
         <v>11265.1558012042</v>
@@ -26430,10 +26430,10 @@
         <v>104470.934444723</v>
       </c>
       <c r="G4" t="n">
-        <v>169843.829310723</v>
+        <v>169843.8293107229</v>
       </c>
       <c r="H4" t="n">
-        <v>169843.829310723</v>
+        <v>169843.8293107229</v>
       </c>
       <c r="I4" t="n">
         <v>169843.8293107229</v>
@@ -26442,7 +26442,7 @@
         <v>169843.8293107229</v>
       </c>
       <c r="K4" t="n">
-        <v>167297.140657815</v>
+        <v>167297.1406578151</v>
       </c>
       <c r="L4" t="n">
         <v>169843.8293107229</v>
@@ -26451,7 +26451,7 @@
         <v>169843.8293107229</v>
       </c>
       <c r="N4" t="n">
-        <v>169843.8293107229</v>
+        <v>169843.829310723</v>
       </c>
       <c r="O4" t="n">
         <v>169843.8293107229</v>
@@ -26479,7 +26479,7 @@
         <v>70695.41565902429</v>
       </c>
       <c r="F5" t="n">
-        <v>71028.25527559045</v>
+        <v>71028.25527559046</v>
       </c>
       <c r="G5" t="n">
         <v>76466.73645392303</v>
@@ -26488,25 +26488,25 @@
         <v>76466.73645392303</v>
       </c>
       <c r="I5" t="n">
-        <v>76466.73645392303</v>
+        <v>76466.73645392302</v>
       </c>
       <c r="J5" t="n">
-        <v>76466.73645392303</v>
+        <v>76466.73645392302</v>
       </c>
       <c r="K5" t="n">
-        <v>77064.30327827708</v>
+        <v>77064.30327827705</v>
       </c>
       <c r="L5" t="n">
-        <v>76466.73645392305</v>
+        <v>76466.736453923</v>
       </c>
       <c r="M5" t="n">
+        <v>76466.73645392302</v>
+      </c>
+      <c r="N5" t="n">
         <v>76466.736453923</v>
       </c>
-      <c r="N5" t="n">
-        <v>76466.73645392303</v>
-      </c>
       <c r="O5" t="n">
-        <v>76466.73645392303</v>
+        <v>76466.736453923</v>
       </c>
       <c r="P5" t="n">
         <v>76466.73645392302</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-197241.7267212751</v>
+        <v>-197246.1402991432</v>
       </c>
       <c r="C6" t="n">
-        <v>-197241.726721275</v>
+        <v>-197246.1402991432</v>
       </c>
       <c r="D6" t="n">
-        <v>-201122.0456256847</v>
+        <v>-201122.0456256848</v>
       </c>
       <c r="E6" t="n">
-        <v>-762872.9748574633</v>
+        <v>-763176.0945194222</v>
       </c>
       <c r="F6" t="n">
-        <v>33369.43927413647</v>
+        <v>33083.80091942916</v>
       </c>
       <c r="G6" t="n">
-        <v>-51750.58262520046</v>
+        <v>-51750.58262520049</v>
       </c>
       <c r="H6" t="n">
         <v>1.965194638745743</v>
       </c>
       <c r="I6" t="n">
-        <v>1.965194638716639</v>
+        <v>1.965194638789399</v>
       </c>
       <c r="J6" t="n">
-        <v>-11263.1906065654</v>
+        <v>-11263.19060656545</v>
       </c>
       <c r="K6" t="n">
-        <v>-2666.94648940771</v>
+        <v>-2672.609810772637</v>
       </c>
       <c r="L6" t="n">
-        <v>-54917.88202513303</v>
+        <v>-54917.88202513302</v>
       </c>
       <c r="M6" t="n">
-        <v>-222892.1197003134</v>
+        <v>-222892.1197003137</v>
       </c>
       <c r="N6" t="n">
         <v>1.965194638687535</v>
       </c>
       <c r="O6" t="n">
-        <v>-11263.19060656546</v>
+        <v>-11263.1906065654</v>
       </c>
       <c r="P6" t="n">
-        <v>1.965194638789399</v>
+        <v>1.965194638731191</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>14.08144475150523</v>
+        <v>14.08144475150532</v>
       </c>
       <c r="F2" t="n">
-        <v>18.04056900142096</v>
+        <v>18.04056900142098</v>
       </c>
       <c r="G2" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377621997</v>
       </c>
       <c r="H2" t="n">
         <v>82.73125377621997</v>
@@ -26710,22 +26710,22 @@
         <v>82.73125377621997</v>
       </c>
       <c r="K2" t="n">
-        <v>78.77212952630423</v>
+        <v>78.7721295263043</v>
       </c>
       <c r="L2" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="M2" t="n">
         <v>82.73125377622002</v>
       </c>
       <c r="N2" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377622009</v>
       </c>
       <c r="O2" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="P2" t="n">
-        <v>82.73125377621999</v>
+        <v>82.73125377622002</v>
       </c>
     </row>
     <row r="3">
@@ -26744,22 +26744,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>651.3855834413229</v>
+        <v>651.3855834413231</v>
       </c>
       <c r="F3" t="n">
-        <v>651.385583441323</v>
+        <v>651.3855834413231</v>
       </c>
       <c r="G3" t="n">
-        <v>651.385583441323</v>
+        <v>651.3855834413231</v>
       </c>
       <c r="H3" t="n">
-        <v>651.385583441323</v>
+        <v>651.3855834413231</v>
       </c>
       <c r="I3" t="n">
-        <v>651.385583441323</v>
+        <v>651.3855834413232</v>
       </c>
       <c r="J3" t="n">
-        <v>651.385583441323</v>
+        <v>651.3855834413231</v>
       </c>
       <c r="K3" t="n">
         <v>651.3855834413231</v>
@@ -26805,31 +26805,31 @@
         <v>909.726923703769</v>
       </c>
       <c r="H4" t="n">
-        <v>909.7269237037691</v>
+        <v>909.726923703769</v>
       </c>
       <c r="I4" t="n">
-        <v>909.726923703769</v>
+        <v>909.7269237037688</v>
       </c>
       <c r="J4" t="n">
-        <v>909.726923703769</v>
+        <v>909.7269237037688</v>
       </c>
       <c r="K4" t="n">
-        <v>925.029661218904</v>
+        <v>925.0296612189036</v>
       </c>
       <c r="L4" t="n">
-        <v>909.7269237037691</v>
+        <v>909.7269237037684</v>
       </c>
       <c r="M4" t="n">
+        <v>909.7269237037688</v>
+      </c>
+      <c r="N4" t="n">
         <v>909.7269237037684</v>
       </c>
-      <c r="N4" t="n">
-        <v>909.726923703769</v>
-      </c>
       <c r="O4" t="n">
-        <v>909.726923703769</v>
+        <v>909.7269237037684</v>
       </c>
       <c r="P4" t="n">
-        <v>909.7269237037686</v>
+        <v>909.7269237037688</v>
       </c>
     </row>
   </sheetData>
@@ -26914,34 +26914,34 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>14.08144475150523</v>
+        <v>14.08144475150532</v>
       </c>
       <c r="F2" t="n">
-        <v>3.959124249915732</v>
+        <v>3.959124249915655</v>
       </c>
       <c r="G2" t="n">
         <v>64.690684774799</v>
       </c>
       <c r="H2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>14.08144475150523</v>
+        <v>14.08144475150532</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.64980902471474</v>
+        <v>68.64980902471471</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="O2" t="n">
         <v>14.08144475150525</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>651.3855834413229</v>
+        <v>651.3855834413231</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>15.30273751513505</v>
+        <v>15.30273751513482</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>894.4241861886333</v>
+        <v>894.4241861886343</v>
       </c>
       <c r="N4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>14.08144475150523</v>
+        <v>14.08144475150532</v>
       </c>
       <c r="K2" t="n">
-        <v>3.959124249915732</v>
+        <v>3.959124249915655</v>
       </c>
       <c r="L2" t="n">
         <v>64.690684774799</v>
       </c>
       <c r="M2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>14.08144475150523</v>
+        <v>14.08144475150532</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>350.0047998482752</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,7 +27862,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>391.5733082265764</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>203.6344894210972</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>153.0545324465364</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>84.85509663750808</v>
       </c>
       <c r="S9" t="n">
         <v>156.3804335887028</v>
@@ -27989,7 +27989,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>217.4978496342902</v>
+        <v>220.0685272723522</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>156.4896106304034</v>
+        <v>151.9440835834928</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>131.1312251314341</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,13 +28029,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>140.1477374121232</v>
+        <v>144.6932644590339</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>6.966754310747802</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>70.85930573655934</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>208.7138605218372</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14.08144475150523</v>
+        <v>14.08144475150532</v>
       </c>
       <c r="C11" t="n">
-        <v>14.08144475150523</v>
+        <v>14.08144475150532</v>
       </c>
       <c r="D11" t="n">
-        <v>14.08144475150523</v>
+        <v>14.08144475150532</v>
       </c>
       <c r="E11" t="n">
-        <v>14.08144475150523</v>
+        <v>14.08144475150532</v>
       </c>
       <c r="F11" t="n">
-        <v>14.08144475150523</v>
+        <v>14.08144475150532</v>
       </c>
       <c r="G11" t="n">
-        <v>14.08144475150523</v>
+        <v>14.08144475150532</v>
       </c>
       <c r="H11" t="n">
-        <v>14.08144475150523</v>
+        <v>14.08144475150532</v>
       </c>
       <c r="I11" t="n">
-        <v>14.08144475150523</v>
+        <v>14.08144475150532</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>14.08144475150523</v>
+        <v>14.08144475150532</v>
       </c>
       <c r="T11" t="n">
-        <v>14.08144475150523</v>
+        <v>14.08144475150532</v>
       </c>
       <c r="U11" t="n">
-        <v>14.08144475150523</v>
+        <v>14.08144475150532</v>
       </c>
       <c r="V11" t="n">
-        <v>14.08144475150523</v>
+        <v>14.08144475150532</v>
       </c>
       <c r="W11" t="n">
-        <v>14.08144475150523</v>
+        <v>14.08144475150532</v>
       </c>
       <c r="X11" t="n">
-        <v>14.08144475150523</v>
+        <v>14.08144475150532</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.08144475150523</v>
+        <v>14.08144475150532</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>14.08144475150523</v>
+        <v>14.08144475150532</v>
       </c>
       <c r="C13" t="n">
-        <v>14.08144475150523</v>
+        <v>14.08144475150532</v>
       </c>
       <c r="D13" t="n">
-        <v>14.08144475150523</v>
+        <v>14.08144475150532</v>
       </c>
       <c r="E13" t="n">
-        <v>14.08144475150523</v>
+        <v>14.08144475150532</v>
       </c>
       <c r="F13" t="n">
-        <v>14.08144475150523</v>
+        <v>14.08144475150532</v>
       </c>
       <c r="G13" t="n">
-        <v>14.08144475150523</v>
+        <v>14.08144475150532</v>
       </c>
       <c r="H13" t="n">
-        <v>14.08144475150523</v>
+        <v>14.08144475150532</v>
       </c>
       <c r="I13" t="n">
-        <v>14.08144475150523</v>
+        <v>14.08144475150532</v>
       </c>
       <c r="J13" t="n">
-        <v>14.08144475150523</v>
+        <v>14.08144475150532</v>
       </c>
       <c r="K13" t="n">
-        <v>14.08144475150523</v>
+        <v>14.08144475150532</v>
       </c>
       <c r="L13" t="n">
-        <v>14.08144475150523</v>
+        <v>14.08144475150532</v>
       </c>
       <c r="M13" t="n">
-        <v>14.08144475150523</v>
+        <v>14.08144475150532</v>
       </c>
       <c r="N13" t="n">
-        <v>14.08144475150523</v>
+        <v>14.08144475150532</v>
       </c>
       <c r="O13" t="n">
-        <v>14.08144475150523</v>
+        <v>14.08144475150532</v>
       </c>
       <c r="P13" t="n">
-        <v>14.08144475150523</v>
+        <v>14.08144475150532</v>
       </c>
       <c r="Q13" t="n">
-        <v>14.08144475150523</v>
+        <v>14.08144475150532</v>
       </c>
       <c r="R13" t="n">
-        <v>14.08144475150523</v>
+        <v>14.08144475150532</v>
       </c>
       <c r="S13" t="n">
-        <v>14.08144475150523</v>
+        <v>14.08144475150532</v>
       </c>
       <c r="T13" t="n">
-        <v>14.08144475150523</v>
+        <v>14.08144475150532</v>
       </c>
       <c r="U13" t="n">
-        <v>14.08144475150523</v>
+        <v>14.08144475150532</v>
       </c>
       <c r="V13" t="n">
-        <v>14.08144475150523</v>
+        <v>14.08144475150532</v>
       </c>
       <c r="W13" t="n">
-        <v>14.08144475150523</v>
+        <v>14.08144475150532</v>
       </c>
       <c r="X13" t="n">
-        <v>14.08144475150523</v>
+        <v>14.08144475150532</v>
       </c>
       <c r="Y13" t="n">
-        <v>14.08144475150523</v>
+        <v>14.08144475150532</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18.04056900142096</v>
+        <v>18.04056900142098</v>
       </c>
       <c r="C14" t="n">
-        <v>18.04056900142096</v>
+        <v>18.04056900142098</v>
       </c>
       <c r="D14" t="n">
-        <v>18.04056900142096</v>
+        <v>18.04056900142098</v>
       </c>
       <c r="E14" t="n">
-        <v>18.04056900142096</v>
+        <v>18.04056900142098</v>
       </c>
       <c r="F14" t="n">
-        <v>18.04056900142096</v>
+        <v>18.04056900142098</v>
       </c>
       <c r="G14" t="n">
-        <v>18.04056900142096</v>
+        <v>18.04056900142098</v>
       </c>
       <c r="H14" t="n">
-        <v>18.04056900142096</v>
+        <v>18.04056900142098</v>
       </c>
       <c r="I14" t="n">
-        <v>18.04056900142096</v>
+        <v>18.04056900142098</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>18.04056900142096</v>
+        <v>18.04056900142098</v>
       </c>
       <c r="T14" t="n">
-        <v>18.04056900142096</v>
+        <v>18.04056900142098</v>
       </c>
       <c r="U14" t="n">
-        <v>18.04056900142096</v>
+        <v>18.04056900142098</v>
       </c>
       <c r="V14" t="n">
-        <v>18.04056900142096</v>
+        <v>18.04056900142098</v>
       </c>
       <c r="W14" t="n">
-        <v>18.04056900142096</v>
+        <v>18.04056900142098</v>
       </c>
       <c r="X14" t="n">
-        <v>18.04056900142096</v>
+        <v>18.04056900142098</v>
       </c>
       <c r="Y14" t="n">
-        <v>18.04056900142096</v>
+        <v>18.04056900142098</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>18.04056900142096</v>
+        <v>18.04056900142098</v>
       </c>
       <c r="C16" t="n">
-        <v>18.04056900142096</v>
+        <v>18.04056900142098</v>
       </c>
       <c r="D16" t="n">
-        <v>18.04056900142096</v>
+        <v>18.04056900142098</v>
       </c>
       <c r="E16" t="n">
-        <v>18.04056900142096</v>
+        <v>18.04056900142098</v>
       </c>
       <c r="F16" t="n">
-        <v>18.04056900142096</v>
+        <v>18.04056900142098</v>
       </c>
       <c r="G16" t="n">
-        <v>18.04056900142096</v>
+        <v>18.04056900142098</v>
       </c>
       <c r="H16" t="n">
-        <v>18.04056900142096</v>
+        <v>18.04056900142098</v>
       </c>
       <c r="I16" t="n">
-        <v>18.04056900142096</v>
+        <v>18.04056900142098</v>
       </c>
       <c r="J16" t="n">
-        <v>18.04056900142096</v>
+        <v>18.04056900142098</v>
       </c>
       <c r="K16" t="n">
-        <v>18.04056900142096</v>
+        <v>18.04056900142098</v>
       </c>
       <c r="L16" t="n">
-        <v>18.04056900142096</v>
+        <v>18.04056900142098</v>
       </c>
       <c r="M16" t="n">
-        <v>18.04056900142096</v>
+        <v>18.04056900142098</v>
       </c>
       <c r="N16" t="n">
-        <v>18.04056900142096</v>
+        <v>18.04056900142098</v>
       </c>
       <c r="O16" t="n">
-        <v>18.04056900142096</v>
+        <v>18.04056900142098</v>
       </c>
       <c r="P16" t="n">
-        <v>18.04056900142096</v>
+        <v>18.04056900142098</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.04056900142096</v>
+        <v>18.04056900142098</v>
       </c>
       <c r="R16" t="n">
-        <v>18.04056900142096</v>
+        <v>18.04056900142098</v>
       </c>
       <c r="S16" t="n">
-        <v>18.04056900142096</v>
+        <v>18.04056900142098</v>
       </c>
       <c r="T16" t="n">
-        <v>18.04056900142096</v>
+        <v>18.04056900142098</v>
       </c>
       <c r="U16" t="n">
-        <v>18.04056900142096</v>
+        <v>18.04056900142098</v>
       </c>
       <c r="V16" t="n">
-        <v>18.04056900142096</v>
+        <v>18.04056900142098</v>
       </c>
       <c r="W16" t="n">
-        <v>18.04056900142096</v>
+        <v>18.04056900142098</v>
       </c>
       <c r="X16" t="n">
-        <v>18.04056900142096</v>
+        <v>18.04056900142098</v>
       </c>
       <c r="Y16" t="n">
-        <v>18.04056900142096</v>
+        <v>18.04056900142098</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377621997</v>
       </c>
       <c r="C17" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377621997</v>
       </c>
       <c r="D17" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377621997</v>
       </c>
       <c r="E17" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377621997</v>
       </c>
       <c r="F17" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377621997</v>
       </c>
       <c r="G17" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377621997</v>
       </c>
       <c r="H17" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377621997</v>
       </c>
       <c r="I17" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377621997</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377621997</v>
       </c>
       <c r="T17" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377621997</v>
       </c>
       <c r="U17" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377621997</v>
       </c>
       <c r="V17" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377621997</v>
       </c>
       <c r="W17" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377621997</v>
       </c>
       <c r="X17" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377621997</v>
       </c>
       <c r="Y17" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377621997</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377621997</v>
       </c>
       <c r="C19" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377621997</v>
       </c>
       <c r="D19" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377621997</v>
       </c>
       <c r="E19" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377621997</v>
       </c>
       <c r="F19" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377621997</v>
       </c>
       <c r="G19" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377621997</v>
       </c>
       <c r="H19" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377621997</v>
       </c>
       <c r="I19" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377621997</v>
       </c>
       <c r="J19" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377621997</v>
       </c>
       <c r="K19" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377621997</v>
       </c>
       <c r="L19" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377621997</v>
       </c>
       <c r="M19" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377621997</v>
       </c>
       <c r="N19" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377621997</v>
       </c>
       <c r="O19" t="n">
-        <v>82.7312537762208</v>
+        <v>82.73125377621997</v>
       </c>
       <c r="P19" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377621997</v>
       </c>
       <c r="Q19" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="R19" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377621997</v>
       </c>
       <c r="S19" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377621997</v>
       </c>
       <c r="T19" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377621997</v>
       </c>
       <c r="U19" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377621997</v>
       </c>
       <c r="V19" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377621997</v>
       </c>
       <c r="W19" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377621997</v>
       </c>
       <c r="X19" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377621997</v>
       </c>
       <c r="Y19" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377621997</v>
       </c>
     </row>
     <row r="20">
@@ -28989,7 +28989,7 @@
         <v>82.73125377621997</v>
       </c>
       <c r="M22" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622</v>
       </c>
       <c r="N22" t="n">
         <v>82.73125377621997</v>
@@ -29226,7 +29226,7 @@
         <v>82.73125377621997</v>
       </c>
       <c r="M25" t="n">
-        <v>82.73125377622054</v>
+        <v>82.73125377621997</v>
       </c>
       <c r="N25" t="n">
         <v>82.73125377621997</v>
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>78.77212952630423</v>
+        <v>78.7721295263043</v>
       </c>
       <c r="C29" t="n">
-        <v>78.77212952630423</v>
+        <v>78.7721295263043</v>
       </c>
       <c r="D29" t="n">
-        <v>78.77212952630423</v>
+        <v>78.7721295263043</v>
       </c>
       <c r="E29" t="n">
-        <v>78.77212952630423</v>
+        <v>78.7721295263043</v>
       </c>
       <c r="F29" t="n">
-        <v>78.77212952630423</v>
+        <v>78.7721295263043</v>
       </c>
       <c r="G29" t="n">
-        <v>78.77212952630423</v>
+        <v>78.7721295263043</v>
       </c>
       <c r="H29" t="n">
-        <v>78.77212952630423</v>
+        <v>78.7721295263043</v>
       </c>
       <c r="I29" t="n">
-        <v>78.77212952630423</v>
+        <v>78.7721295263043</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>78.77212952630423</v>
+        <v>78.7721295263043</v>
       </c>
       <c r="T29" t="n">
-        <v>78.77212952630423</v>
+        <v>78.7721295263043</v>
       </c>
       <c r="U29" t="n">
-        <v>78.77212952630423</v>
+        <v>78.7721295263043</v>
       </c>
       <c r="V29" t="n">
-        <v>78.77212952630423</v>
+        <v>78.7721295263043</v>
       </c>
       <c r="W29" t="n">
-        <v>78.77212952630423</v>
+        <v>78.7721295263043</v>
       </c>
       <c r="X29" t="n">
-        <v>78.77212952630423</v>
+        <v>78.7721295263043</v>
       </c>
       <c r="Y29" t="n">
-        <v>78.77212952630423</v>
+        <v>78.7721295263043</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.77212952630423</v>
+        <v>78.7721295263043</v>
       </c>
       <c r="C31" t="n">
-        <v>78.77212952630423</v>
+        <v>78.7721295263043</v>
       </c>
       <c r="D31" t="n">
-        <v>78.77212952630423</v>
+        <v>78.7721295263043</v>
       </c>
       <c r="E31" t="n">
-        <v>78.77212952630423</v>
+        <v>78.7721295263043</v>
       </c>
       <c r="F31" t="n">
-        <v>78.77212952630423</v>
+        <v>78.7721295263043</v>
       </c>
       <c r="G31" t="n">
-        <v>78.77212952630423</v>
+        <v>78.7721295263043</v>
       </c>
       <c r="H31" t="n">
-        <v>78.77212952630423</v>
+        <v>78.7721295263043</v>
       </c>
       <c r="I31" t="n">
-        <v>78.77212952630423</v>
+        <v>78.7721295263043</v>
       </c>
       <c r="J31" t="n">
-        <v>78.77212952630423</v>
+        <v>78.7721295263043</v>
       </c>
       <c r="K31" t="n">
-        <v>78.77212952630423</v>
+        <v>78.7721295263043</v>
       </c>
       <c r="L31" t="n">
-        <v>78.77212952630423</v>
+        <v>78.7721295263043</v>
       </c>
       <c r="M31" t="n">
-        <v>78.77212952630423</v>
+        <v>78.7721295263043</v>
       </c>
       <c r="N31" t="n">
-        <v>78.77212952630423</v>
+        <v>78.7721295263043</v>
       </c>
       <c r="O31" t="n">
-        <v>78.77212952630423</v>
+        <v>78.7721295263043</v>
       </c>
       <c r="P31" t="n">
-        <v>78.77212952630423</v>
+        <v>78.7721295263043</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.77212952630423</v>
+        <v>78.7721295263043</v>
       </c>
       <c r="R31" t="n">
-        <v>78.77212952630423</v>
+        <v>78.7721295263043</v>
       </c>
       <c r="S31" t="n">
-        <v>78.77212952630423</v>
+        <v>78.7721295263043</v>
       </c>
       <c r="T31" t="n">
-        <v>78.77212952630423</v>
+        <v>78.7721295263043</v>
       </c>
       <c r="U31" t="n">
-        <v>78.77212952630423</v>
+        <v>78.7721295263043</v>
       </c>
       <c r="V31" t="n">
-        <v>78.77212952630423</v>
+        <v>78.7721295263043</v>
       </c>
       <c r="W31" t="n">
-        <v>78.77212952630423</v>
+        <v>78.7721295263043</v>
       </c>
       <c r="X31" t="n">
-        <v>78.77212952630423</v>
+        <v>78.7721295263043</v>
       </c>
       <c r="Y31" t="n">
-        <v>78.77212952630423</v>
+        <v>78.7721295263043</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="C32" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="D32" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="E32" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="F32" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="G32" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="H32" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="I32" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="T32" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="U32" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="V32" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="W32" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="X32" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="Y32" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="C34" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="D34" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="E34" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="F34" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="G34" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="H34" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="I34" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="J34" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="K34" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="L34" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="M34" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="N34" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="O34" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="P34" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="R34" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="S34" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="T34" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="U34" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="V34" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="W34" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="X34" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="Y34" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
     </row>
     <row r="35">
@@ -30165,7 +30165,7 @@
         <v>82.73125377622002</v>
       </c>
       <c r="J37" t="n">
-        <v>82.73125377622002</v>
+        <v>82.73125377621915</v>
       </c>
       <c r="K37" t="n">
         <v>82.73125377622002</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377622009</v>
       </c>
       <c r="C38" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377622009</v>
       </c>
       <c r="D38" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377622009</v>
       </c>
       <c r="E38" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377622009</v>
       </c>
       <c r="F38" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377622009</v>
       </c>
       <c r="G38" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377622009</v>
       </c>
       <c r="H38" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377622009</v>
       </c>
       <c r="I38" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377622009</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377622009</v>
       </c>
       <c r="T38" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377622009</v>
       </c>
       <c r="U38" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377622009</v>
       </c>
       <c r="V38" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377622009</v>
       </c>
       <c r="W38" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377622009</v>
       </c>
       <c r="X38" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377622009</v>
       </c>
       <c r="Y38" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377622009</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377622009</v>
       </c>
       <c r="C40" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377622009</v>
       </c>
       <c r="D40" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377622009</v>
       </c>
       <c r="E40" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377622009</v>
       </c>
       <c r="F40" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377622009</v>
       </c>
       <c r="G40" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377622009</v>
       </c>
       <c r="H40" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377622009</v>
       </c>
       <c r="I40" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377622009</v>
       </c>
       <c r="J40" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377622009</v>
       </c>
       <c r="K40" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377621759</v>
       </c>
       <c r="L40" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377622009</v>
       </c>
       <c r="M40" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377622009</v>
       </c>
       <c r="N40" t="n">
-        <v>82.73125377622094</v>
+        <v>82.73125377622009</v>
       </c>
       <c r="O40" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377622009</v>
       </c>
       <c r="P40" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377622009</v>
       </c>
       <c r="Q40" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377622009</v>
       </c>
       <c r="R40" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377622009</v>
       </c>
       <c r="S40" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377622009</v>
       </c>
       <c r="T40" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377622009</v>
       </c>
       <c r="U40" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377622009</v>
       </c>
       <c r="V40" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377622009</v>
       </c>
       <c r="W40" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377622009</v>
       </c>
       <c r="X40" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377622009</v>
       </c>
       <c r="Y40" t="n">
-        <v>82.73125377621996</v>
+        <v>82.73125377622009</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="C41" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="D41" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="E41" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="F41" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="G41" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="H41" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="I41" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="T41" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="U41" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="V41" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="W41" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="X41" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="Y41" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="C43" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="D43" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="E43" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="F43" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="G43" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="H43" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="I43" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="J43" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="K43" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="L43" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="M43" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="N43" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="O43" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="P43" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="Q43" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="R43" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="S43" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="T43" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="U43" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="V43" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="W43" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="X43" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="Y43" t="n">
-        <v>82.73125377621997</v>
+        <v>82.73125377622002</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>82.73125377621999</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="C44" t="n">
-        <v>82.73125377621999</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="D44" t="n">
-        <v>82.73125377621999</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="E44" t="n">
-        <v>82.73125377621999</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="F44" t="n">
-        <v>82.73125377621999</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="G44" t="n">
-        <v>82.73125377621999</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="H44" t="n">
-        <v>82.73125377621999</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="I44" t="n">
-        <v>82.73125377621999</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.73125377621999</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="T44" t="n">
-        <v>82.73125377621999</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="U44" t="n">
-        <v>82.73125377621999</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="V44" t="n">
-        <v>82.73125377621999</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="W44" t="n">
-        <v>82.73125377621999</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="X44" t="n">
-        <v>82.73125377621999</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="Y44" t="n">
-        <v>82.73125377621999</v>
+        <v>82.73125377622002</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.73125377621999</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="C46" t="n">
-        <v>82.73125377621999</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="D46" t="n">
-        <v>82.73125377621999</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="E46" t="n">
-        <v>82.73125377621999</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="F46" t="n">
-        <v>82.73125377621999</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="G46" t="n">
-        <v>82.73125377621999</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="H46" t="n">
-        <v>82.73125377621999</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="I46" t="n">
-        <v>82.73125377621999</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="J46" t="n">
-        <v>82.73125377621999</v>
+        <v>82.73125377621915</v>
       </c>
       <c r="K46" t="n">
-        <v>82.73125377621999</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="L46" t="n">
-        <v>82.73125377621999</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="M46" t="n">
-        <v>82.73125377621999</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="N46" t="n">
-        <v>82.73125377621999</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="O46" t="n">
-        <v>82.73125377621999</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="P46" t="n">
-        <v>82.73125377621999</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="Q46" t="n">
-        <v>82.73125377621999</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="R46" t="n">
-        <v>82.73125377621999</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="S46" t="n">
-        <v>82.73125377621999</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="T46" t="n">
-        <v>82.73125377621999</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="U46" t="n">
-        <v>82.73125377621999</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="V46" t="n">
-        <v>82.73125377621999</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="W46" t="n">
-        <v>82.73125377621999</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="X46" t="n">
-        <v>82.73125377621999</v>
+        <v>82.73125377622002</v>
       </c>
       <c r="Y46" t="n">
-        <v>82.73125377621999</v>
+        <v>82.73125377622002</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.618635511321899</v>
+        <v>2.6186355113219</v>
       </c>
       <c r="H11" t="n">
-        <v>26.8181009303254</v>
+        <v>26.81810093032541</v>
       </c>
       <c r="I11" t="n">
         <v>100.9549455502376</v>
       </c>
       <c r="J11" t="n">
-        <v>222.2534157290572</v>
+        <v>222.2534157290573</v>
       </c>
       <c r="K11" t="n">
-        <v>333.1002569233133</v>
+        <v>333.1002569233134</v>
       </c>
       <c r="L11" t="n">
-        <v>413.2403234529309</v>
+        <v>413.2403234529311</v>
       </c>
       <c r="M11" t="n">
-        <v>459.8094827274017</v>
+        <v>459.8094827274019</v>
       </c>
       <c r="N11" t="n">
-        <v>467.2496808739451</v>
+        <v>467.2496808739453</v>
       </c>
       <c r="O11" t="n">
-        <v>441.210624008238</v>
+        <v>441.2106240082381</v>
       </c>
       <c r="P11" t="n">
-        <v>376.5630598224785</v>
+        <v>376.5630598224786</v>
       </c>
       <c r="Q11" t="n">
-        <v>282.7831755732629</v>
+        <v>282.783175573263</v>
       </c>
       <c r="R11" t="n">
         <v>164.4928629380744</v>
       </c>
       <c r="S11" t="n">
-        <v>59.67215671424783</v>
+        <v>59.67215671424785</v>
       </c>
       <c r="T11" t="n">
         <v>11.46307695081162</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2094908409057519</v>
+        <v>0.209490840905752</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.401093519100204</v>
+        <v>1.401093519100205</v>
       </c>
       <c r="H12" t="n">
         <v>13.53161372394145</v>
       </c>
       <c r="I12" t="n">
-        <v>48.23940405673948</v>
+        <v>48.2394040567395</v>
       </c>
       <c r="J12" t="n">
-        <v>132.3726118199013</v>
+        <v>132.3726118199014</v>
       </c>
       <c r="K12" t="n">
         <v>226.245877599615</v>
       </c>
       <c r="L12" t="n">
-        <v>304.2155029081386</v>
+        <v>304.2155029081387</v>
       </c>
       <c r="M12" t="n">
-        <v>355.0051429755209</v>
+        <v>355.005142975521</v>
       </c>
       <c r="N12" t="n">
-        <v>364.4010727593114</v>
+        <v>364.4010727593115</v>
       </c>
       <c r="O12" t="n">
-        <v>333.3557900466174</v>
+        <v>333.3557900466175</v>
       </c>
       <c r="P12" t="n">
-        <v>267.547410678003</v>
+        <v>267.5474106780031</v>
       </c>
       <c r="Q12" t="n">
-        <v>178.8483586837383</v>
+        <v>178.8483586837384</v>
       </c>
       <c r="R12" t="n">
-        <v>86.99070112448463</v>
+        <v>86.99070112448466</v>
       </c>
       <c r="S12" t="n">
-        <v>26.02469760258491</v>
+        <v>26.02469760258492</v>
       </c>
       <c r="T12" t="n">
-        <v>5.647390105495996</v>
+        <v>5.647390105495997</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09217720520396082</v>
+        <v>0.09217720520396086</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,43 +31914,43 @@
         <v>10.4435262394363</v>
       </c>
       <c r="I13" t="n">
-        <v>35.32431983645732</v>
+        <v>35.32431983645733</v>
       </c>
       <c r="J13" t="n">
-        <v>83.04632266267487</v>
+        <v>83.0463226626749</v>
       </c>
       <c r="K13" t="n">
         <v>136.4706189570509</v>
       </c>
       <c r="L13" t="n">
-        <v>174.6354070753999</v>
+        <v>174.6354070754</v>
       </c>
       <c r="M13" t="n">
         <v>184.1285510701431</v>
       </c>
       <c r="N13" t="n">
-        <v>179.7503856732425</v>
+        <v>179.7503856732426</v>
       </c>
       <c r="O13" t="n">
-        <v>166.0285746122244</v>
+        <v>166.0285746122245</v>
       </c>
       <c r="P13" t="n">
-        <v>142.0661279033337</v>
+        <v>142.0661279033338</v>
       </c>
       <c r="Q13" t="n">
-        <v>98.35922309963975</v>
+        <v>98.35922309963978</v>
       </c>
       <c r="R13" t="n">
-        <v>52.81562451968495</v>
+        <v>52.81562451968497</v>
       </c>
       <c r="S13" t="n">
-        <v>20.47059284355763</v>
+        <v>20.47059284355764</v>
       </c>
       <c r="T13" t="n">
-        <v>5.018872528154453</v>
+        <v>5.018872528154454</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06407071312537609</v>
+        <v>0.06407071312537611</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.618635511321899</v>
+        <v>2.6186355113219</v>
       </c>
       <c r="H14" t="n">
         <v>26.81810093032541</v>
@@ -31999,19 +31999,19 @@
         <v>222.2534157290573</v>
       </c>
       <c r="K14" t="n">
-        <v>333.1002569233133</v>
+        <v>333.1002569233134</v>
       </c>
       <c r="L14" t="n">
-        <v>413.240323452931</v>
+        <v>413.2403234529311</v>
       </c>
       <c r="M14" t="n">
-        <v>459.8094827274018</v>
+        <v>459.8094827274019</v>
       </c>
       <c r="N14" t="n">
-        <v>467.2496808739452</v>
+        <v>467.2496808739453</v>
       </c>
       <c r="O14" t="n">
-        <v>441.210624008238</v>
+        <v>441.2106240082381</v>
       </c>
       <c r="P14" t="n">
         <v>376.5630598224786</v>
@@ -32023,13 +32023,13 @@
         <v>164.4928629380744</v>
       </c>
       <c r="S14" t="n">
-        <v>59.67215671424784</v>
+        <v>59.67215671424785</v>
       </c>
       <c r="T14" t="n">
         <v>11.46307695081162</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2094908409057519</v>
+        <v>0.209490840905752</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.401093519100204</v>
+        <v>1.401093519100205</v>
       </c>
       <c r="H15" t="n">
         <v>13.53161372394145</v>
@@ -32075,7 +32075,7 @@
         <v>48.2394040567395</v>
       </c>
       <c r="J15" t="n">
-        <v>132.3726118199013</v>
+        <v>132.3726118199014</v>
       </c>
       <c r="K15" t="n">
         <v>226.245877599615</v>
@@ -32087,10 +32087,10 @@
         <v>355.005142975521</v>
       </c>
       <c r="N15" t="n">
-        <v>364.4010727593114</v>
+        <v>364.4010727593115</v>
       </c>
       <c r="O15" t="n">
-        <v>333.3557900466174</v>
+        <v>333.3557900466175</v>
       </c>
       <c r="P15" t="n">
         <v>267.5474106780031</v>
@@ -32099,7 +32099,7 @@
         <v>178.8483586837384</v>
       </c>
       <c r="R15" t="n">
-        <v>86.99070112448464</v>
+        <v>86.99070112448466</v>
       </c>
       <c r="S15" t="n">
         <v>26.02469760258492</v>
@@ -32108,7 +32108,7 @@
         <v>5.647390105495997</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09217720520396083</v>
+        <v>0.09217720520396086</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32154,13 +32154,13 @@
         <v>35.32431983645733</v>
       </c>
       <c r="J16" t="n">
-        <v>83.04632266267488</v>
+        <v>83.0463226626749</v>
       </c>
       <c r="K16" t="n">
         <v>136.4706189570509</v>
       </c>
       <c r="L16" t="n">
-        <v>174.6354070753999</v>
+        <v>174.6354070754</v>
       </c>
       <c r="M16" t="n">
         <v>184.1285510701431</v>
@@ -32172,22 +32172,22 @@
         <v>166.0285746122245</v>
       </c>
       <c r="P16" t="n">
-        <v>142.0661279033337</v>
+        <v>142.0661279033338</v>
       </c>
       <c r="Q16" t="n">
-        <v>98.35922309963976</v>
+        <v>98.35922309963978</v>
       </c>
       <c r="R16" t="n">
-        <v>52.81562451968495</v>
+        <v>52.81562451968497</v>
       </c>
       <c r="S16" t="n">
-        <v>20.47059284355763</v>
+        <v>20.47059284355764</v>
       </c>
       <c r="T16" t="n">
         <v>5.018872528154454</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0640707131253761</v>
+        <v>0.06407071312537611</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.618635511321899</v>
+        <v>2.6186355113219</v>
       </c>
       <c r="H17" t="n">
         <v>26.81810093032541</v>
@@ -32236,19 +32236,19 @@
         <v>222.2534157290573</v>
       </c>
       <c r="K17" t="n">
-        <v>333.1002569233133</v>
+        <v>333.1002569233134</v>
       </c>
       <c r="L17" t="n">
-        <v>413.240323452931</v>
+        <v>413.2403234529311</v>
       </c>
       <c r="M17" t="n">
-        <v>459.8094827274018</v>
+        <v>459.8094827274019</v>
       </c>
       <c r="N17" t="n">
-        <v>467.2496808739452</v>
+        <v>467.2496808739453</v>
       </c>
       <c r="O17" t="n">
-        <v>441.210624008238</v>
+        <v>441.2106240082381</v>
       </c>
       <c r="P17" t="n">
         <v>376.5630598224786</v>
@@ -32260,13 +32260,13 @@
         <v>164.4928629380744</v>
       </c>
       <c r="S17" t="n">
-        <v>59.67215671424784</v>
+        <v>59.67215671424785</v>
       </c>
       <c r="T17" t="n">
         <v>11.46307695081162</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2094908409057519</v>
+        <v>0.209490840905752</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.401093519100204</v>
+        <v>1.401093519100205</v>
       </c>
       <c r="H18" t="n">
         <v>13.53161372394145</v>
@@ -32312,7 +32312,7 @@
         <v>48.2394040567395</v>
       </c>
       <c r="J18" t="n">
-        <v>132.3726118199013</v>
+        <v>132.3726118199014</v>
       </c>
       <c r="K18" t="n">
         <v>226.245877599615</v>
@@ -32324,10 +32324,10 @@
         <v>355.005142975521</v>
       </c>
       <c r="N18" t="n">
-        <v>364.4010727593114</v>
+        <v>364.4010727593115</v>
       </c>
       <c r="O18" t="n">
-        <v>333.3557900466174</v>
+        <v>333.3557900466175</v>
       </c>
       <c r="P18" t="n">
         <v>267.5474106780031</v>
@@ -32336,7 +32336,7 @@
         <v>178.8483586837384</v>
       </c>
       <c r="R18" t="n">
-        <v>86.99070112448464</v>
+        <v>86.99070112448466</v>
       </c>
       <c r="S18" t="n">
         <v>26.02469760258492</v>
@@ -32345,7 +32345,7 @@
         <v>5.647390105495997</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09217720520396083</v>
+        <v>0.09217720520396086</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32391,13 +32391,13 @@
         <v>35.32431983645733</v>
       </c>
       <c r="J19" t="n">
-        <v>83.04632266267488</v>
+        <v>83.0463226626749</v>
       </c>
       <c r="K19" t="n">
         <v>136.4706189570509</v>
       </c>
       <c r="L19" t="n">
-        <v>174.6354070753999</v>
+        <v>174.6354070754</v>
       </c>
       <c r="M19" t="n">
         <v>184.1285510701431</v>
@@ -32409,22 +32409,22 @@
         <v>166.0285746122245</v>
       </c>
       <c r="P19" t="n">
-        <v>142.0661279033337</v>
+        <v>142.0661279033338</v>
       </c>
       <c r="Q19" t="n">
-        <v>98.35922309963976</v>
+        <v>98.35922309963978</v>
       </c>
       <c r="R19" t="n">
-        <v>52.81562451968495</v>
+        <v>52.81562451968497</v>
       </c>
       <c r="S19" t="n">
-        <v>20.47059284355763</v>
+        <v>20.47059284355764</v>
       </c>
       <c r="T19" t="n">
         <v>5.018872528154454</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0640707131253761</v>
+        <v>0.06407071312537611</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.618635511321899</v>
+        <v>2.6186355113219</v>
       </c>
       <c r="H20" t="n">
         <v>26.81810093032541</v>
@@ -32473,19 +32473,19 @@
         <v>222.2534157290573</v>
       </c>
       <c r="K20" t="n">
-        <v>333.1002569233133</v>
+        <v>333.1002569233134</v>
       </c>
       <c r="L20" t="n">
-        <v>413.240323452931</v>
+        <v>413.2403234529311</v>
       </c>
       <c r="M20" t="n">
-        <v>459.8094827274018</v>
+        <v>459.8094827274019</v>
       </c>
       <c r="N20" t="n">
-        <v>467.2496808739452</v>
+        <v>467.2496808739453</v>
       </c>
       <c r="O20" t="n">
-        <v>441.210624008238</v>
+        <v>441.2106240082381</v>
       </c>
       <c r="P20" t="n">
         <v>376.5630598224786</v>
@@ -32497,13 +32497,13 @@
         <v>164.4928629380744</v>
       </c>
       <c r="S20" t="n">
-        <v>59.67215671424784</v>
+        <v>59.67215671424785</v>
       </c>
       <c r="T20" t="n">
         <v>11.46307695081162</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2094908409057519</v>
+        <v>0.209490840905752</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.401093519100204</v>
+        <v>1.401093519100205</v>
       </c>
       <c r="H21" t="n">
         <v>13.53161372394145</v>
@@ -32549,7 +32549,7 @@
         <v>48.2394040567395</v>
       </c>
       <c r="J21" t="n">
-        <v>132.3726118199013</v>
+        <v>132.3726118199014</v>
       </c>
       <c r="K21" t="n">
         <v>226.245877599615</v>
@@ -32561,10 +32561,10 @@
         <v>355.005142975521</v>
       </c>
       <c r="N21" t="n">
-        <v>364.4010727593114</v>
+        <v>364.4010727593115</v>
       </c>
       <c r="O21" t="n">
-        <v>333.3557900466174</v>
+        <v>333.3557900466175</v>
       </c>
       <c r="P21" t="n">
         <v>267.5474106780031</v>
@@ -32573,7 +32573,7 @@
         <v>178.8483586837384</v>
       </c>
       <c r="R21" t="n">
-        <v>86.99070112448464</v>
+        <v>86.99070112448466</v>
       </c>
       <c r="S21" t="n">
         <v>26.02469760258492</v>
@@ -32582,7 +32582,7 @@
         <v>5.647390105495997</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09217720520396083</v>
+        <v>0.09217720520396086</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32628,13 +32628,13 @@
         <v>35.32431983645733</v>
       </c>
       <c r="J22" t="n">
-        <v>83.04632266267488</v>
+        <v>83.0463226626749</v>
       </c>
       <c r="K22" t="n">
         <v>136.4706189570509</v>
       </c>
       <c r="L22" t="n">
-        <v>174.6354070753999</v>
+        <v>174.6354070754</v>
       </c>
       <c r="M22" t="n">
         <v>184.1285510701431</v>
@@ -32646,22 +32646,22 @@
         <v>166.0285746122245</v>
       </c>
       <c r="P22" t="n">
-        <v>142.0661279033337</v>
+        <v>142.0661279033338</v>
       </c>
       <c r="Q22" t="n">
-        <v>98.35922309963976</v>
+        <v>98.35922309963978</v>
       </c>
       <c r="R22" t="n">
-        <v>52.81562451968495</v>
+        <v>52.81562451968497</v>
       </c>
       <c r="S22" t="n">
-        <v>20.47059284355763</v>
+        <v>20.47059284355764</v>
       </c>
       <c r="T22" t="n">
         <v>5.018872528154454</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0640707131253761</v>
+        <v>0.06407071312537611</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.618635511321899</v>
+        <v>2.6186355113219</v>
       </c>
       <c r="H23" t="n">
-        <v>26.81810093032541</v>
+        <v>26.81810093032542</v>
       </c>
       <c r="I23" t="n">
-        <v>100.9549455502376</v>
+        <v>100.9549455502377</v>
       </c>
       <c r="J23" t="n">
         <v>222.2534157290573</v>
       </c>
       <c r="K23" t="n">
-        <v>333.1002569233133</v>
+        <v>333.1002569233135</v>
       </c>
       <c r="L23" t="n">
-        <v>413.240323452931</v>
+        <v>413.2403234529311</v>
       </c>
       <c r="M23" t="n">
-        <v>459.8094827274018</v>
+        <v>459.809482727402</v>
       </c>
       <c r="N23" t="n">
-        <v>467.2496808739452</v>
+        <v>467.2496808739454</v>
       </c>
       <c r="O23" t="n">
-        <v>441.210624008238</v>
+        <v>441.2106240082382</v>
       </c>
       <c r="P23" t="n">
-        <v>376.5630598224786</v>
+        <v>376.5630598224787</v>
       </c>
       <c r="Q23" t="n">
-        <v>282.783175573263</v>
+        <v>282.7831755732631</v>
       </c>
       <c r="R23" t="n">
-        <v>164.4928629380744</v>
+        <v>164.4928629380745</v>
       </c>
       <c r="S23" t="n">
-        <v>59.67215671424784</v>
+        <v>59.67215671424786</v>
       </c>
       <c r="T23" t="n">
         <v>11.46307695081162</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2094908409057519</v>
+        <v>0.209490840905752</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.401093519100204</v>
+        <v>1.401093519100205</v>
       </c>
       <c r="H24" t="n">
         <v>13.53161372394145</v>
       </c>
       <c r="I24" t="n">
-        <v>48.2394040567395</v>
+        <v>48.23940405673951</v>
       </c>
       <c r="J24" t="n">
-        <v>132.3726118199013</v>
+        <v>132.3726118199014</v>
       </c>
       <c r="K24" t="n">
-        <v>226.245877599615</v>
+        <v>226.2458775996151</v>
       </c>
       <c r="L24" t="n">
-        <v>304.2155029081387</v>
+        <v>304.2155029081388</v>
       </c>
       <c r="M24" t="n">
-        <v>355.005142975521</v>
+        <v>355.0051429755211</v>
       </c>
       <c r="N24" t="n">
-        <v>364.4010727593114</v>
+        <v>364.4010727593116</v>
       </c>
       <c r="O24" t="n">
-        <v>333.3557900466174</v>
+        <v>333.3557900466175</v>
       </c>
       <c r="P24" t="n">
         <v>267.5474106780031</v>
@@ -32810,16 +32810,16 @@
         <v>178.8483586837384</v>
       </c>
       <c r="R24" t="n">
-        <v>86.99070112448464</v>
+        <v>86.99070112448467</v>
       </c>
       <c r="S24" t="n">
-        <v>26.02469760258492</v>
+        <v>26.02469760258493</v>
       </c>
       <c r="T24" t="n">
-        <v>5.647390105495997</v>
+        <v>5.647390105495998</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09217720520396083</v>
+        <v>0.09217720520396087</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32865,16 +32865,16 @@
         <v>35.32431983645733</v>
       </c>
       <c r="J25" t="n">
-        <v>83.04632266267488</v>
+        <v>83.04632266267491</v>
       </c>
       <c r="K25" t="n">
-        <v>136.4706189570509</v>
+        <v>136.470618957051</v>
       </c>
       <c r="L25" t="n">
-        <v>174.6354070753999</v>
+        <v>174.6354070754</v>
       </c>
       <c r="M25" t="n">
-        <v>184.1285510701431</v>
+        <v>184.1285510701432</v>
       </c>
       <c r="N25" t="n">
         <v>179.7503856732426</v>
@@ -32883,22 +32883,22 @@
         <v>166.0285746122245</v>
       </c>
       <c r="P25" t="n">
-        <v>142.0661279033337</v>
+        <v>142.0661279033338</v>
       </c>
       <c r="Q25" t="n">
-        <v>98.35922309963976</v>
+        <v>98.35922309963981</v>
       </c>
       <c r="R25" t="n">
-        <v>52.81562451968495</v>
+        <v>52.81562451968497</v>
       </c>
       <c r="S25" t="n">
-        <v>20.47059284355763</v>
+        <v>20.47059284355764</v>
       </c>
       <c r="T25" t="n">
-        <v>5.018872528154454</v>
+        <v>5.018872528154455</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0640707131253761</v>
+        <v>0.06407071312537611</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.618635511321899</v>
+        <v>2.6186355113219</v>
       </c>
       <c r="H26" t="n">
         <v>26.81810093032541</v>
@@ -32947,19 +32947,19 @@
         <v>222.2534157290573</v>
       </c>
       <c r="K26" t="n">
-        <v>333.1002569233133</v>
+        <v>333.1002569233134</v>
       </c>
       <c r="L26" t="n">
-        <v>413.240323452931</v>
+        <v>413.2403234529311</v>
       </c>
       <c r="M26" t="n">
-        <v>459.8094827274018</v>
+        <v>459.8094827274019</v>
       </c>
       <c r="N26" t="n">
-        <v>467.2496808739452</v>
+        <v>467.2496808739453</v>
       </c>
       <c r="O26" t="n">
-        <v>441.210624008238</v>
+        <v>441.2106240082381</v>
       </c>
       <c r="P26" t="n">
         <v>376.5630598224786</v>
@@ -32971,13 +32971,13 @@
         <v>164.4928629380744</v>
       </c>
       <c r="S26" t="n">
-        <v>59.67215671424784</v>
+        <v>59.67215671424785</v>
       </c>
       <c r="T26" t="n">
         <v>11.46307695081162</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2094908409057519</v>
+        <v>0.209490840905752</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.401093519100204</v>
+        <v>1.401093519100205</v>
       </c>
       <c r="H27" t="n">
         <v>13.53161372394145</v>
@@ -33023,7 +33023,7 @@
         <v>48.2394040567395</v>
       </c>
       <c r="J27" t="n">
-        <v>132.3726118199013</v>
+        <v>132.3726118199014</v>
       </c>
       <c r="K27" t="n">
         <v>226.245877599615</v>
@@ -33035,10 +33035,10 @@
         <v>355.005142975521</v>
       </c>
       <c r="N27" t="n">
-        <v>364.4010727593114</v>
+        <v>364.4010727593115</v>
       </c>
       <c r="O27" t="n">
-        <v>333.3557900466174</v>
+        <v>333.3557900466175</v>
       </c>
       <c r="P27" t="n">
         <v>267.5474106780031</v>
@@ -33047,7 +33047,7 @@
         <v>178.8483586837384</v>
       </c>
       <c r="R27" t="n">
-        <v>86.99070112448464</v>
+        <v>86.99070112448466</v>
       </c>
       <c r="S27" t="n">
         <v>26.02469760258492</v>
@@ -33056,7 +33056,7 @@
         <v>5.647390105495997</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09217720520396083</v>
+        <v>0.09217720520396086</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33102,13 +33102,13 @@
         <v>35.32431983645733</v>
       </c>
       <c r="J28" t="n">
-        <v>83.04632266267488</v>
+        <v>83.0463226626749</v>
       </c>
       <c r="K28" t="n">
         <v>136.4706189570509</v>
       </c>
       <c r="L28" t="n">
-        <v>174.6354070753999</v>
+        <v>174.6354070754</v>
       </c>
       <c r="M28" t="n">
         <v>184.1285510701431</v>
@@ -33120,22 +33120,22 @@
         <v>166.0285746122245</v>
       </c>
       <c r="P28" t="n">
-        <v>142.0661279033337</v>
+        <v>142.0661279033338</v>
       </c>
       <c r="Q28" t="n">
-        <v>98.35922309963976</v>
+        <v>98.35922309963978</v>
       </c>
       <c r="R28" t="n">
-        <v>52.81562451968495</v>
+        <v>52.81562451968497</v>
       </c>
       <c r="S28" t="n">
-        <v>20.47059284355763</v>
+        <v>20.47059284355764</v>
       </c>
       <c r="T28" t="n">
         <v>5.018872528154454</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0640707131253761</v>
+        <v>0.06407071312537611</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -35176,16 +35176,16 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>14.68444509028111</v>
-      </c>
-      <c r="M8" t="n">
-        <v>15.30273751513505</v>
       </c>
       <c r="N8" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="P8" t="n">
         <v>15.30273751513505</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L9" t="n">
         <v>15.30273751513505</v>
@@ -35267,7 +35267,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35340,10 +35340,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="N10" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="O10" t="n">
         <v>14.68444509028111</v>
-      </c>
-      <c r="O10" t="n">
-        <v>15.30273751513505</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>210.3041263744447</v>
+        <v>210.3041263744448</v>
       </c>
       <c r="K11" t="n">
-        <v>437.1558184494975</v>
+        <v>437.1558184494976</v>
       </c>
       <c r="L11" t="n">
-        <v>595.1351230333942</v>
+        <v>595.1351230333943</v>
       </c>
       <c r="M11" t="n">
-        <v>678.9767829929615</v>
+        <v>678.9767829929616</v>
       </c>
       <c r="N11" t="n">
-        <v>334.1216131391761</v>
+        <v>675.1835416893385</v>
       </c>
       <c r="O11" t="n">
-        <v>591.9125938492966</v>
+        <v>591.9125938492967</v>
       </c>
       <c r="P11" t="n">
-        <v>467.1287722386916</v>
+        <v>353.0055793453587</v>
       </c>
       <c r="Q11" t="n">
-        <v>272.7924763587181</v>
+        <v>60.47748569881352</v>
       </c>
       <c r="R11" t="n">
-        <v>14.6237449969247</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>131.6260204936434</v>
+        <v>131.6260204936435</v>
       </c>
       <c r="K12" t="n">
         <v>352.8696756378346</v>
       </c>
       <c r="L12" t="n">
-        <v>304.0568586729277</v>
+        <v>536.5014684317237</v>
       </c>
       <c r="M12" t="n">
-        <v>678.5761728035025</v>
+        <v>446.131563044706</v>
       </c>
       <c r="N12" t="n">
-        <v>233.0593606759781</v>
+        <v>233.0593606759782</v>
       </c>
       <c r="O12" t="n">
-        <v>190.7595456021729</v>
+        <v>190.759545602173</v>
       </c>
       <c r="P12" t="n">
-        <v>452.0357719036099</v>
+        <v>452.03577190361</v>
       </c>
       <c r="Q12" t="n">
-        <v>248.9438723335659</v>
+        <v>248.943872333566</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>3.768587297507326</v>
+        <v>3.768587297507452</v>
       </c>
       <c r="K13" t="n">
-        <v>128.2825718826733</v>
+        <v>128.2825718826734</v>
       </c>
       <c r="L13" t="n">
-        <v>216.3068770872213</v>
+        <v>216.3068770872214</v>
       </c>
       <c r="M13" t="n">
-        <v>237.7938727834889</v>
+        <v>237.7938727834891</v>
       </c>
       <c r="N13" t="n">
-        <v>237.9640028039764</v>
+        <v>237.9640028039765</v>
       </c>
       <c r="O13" t="n">
-        <v>204.6951472777694</v>
+        <v>204.6951472777695</v>
       </c>
       <c r="P13" t="n">
-        <v>153.4261319197324</v>
+        <v>153.4261319197326</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.27862459945059</v>
+        <v>26.27862459945071</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>210.3041263744447</v>
+        <v>41.20751120237102</v>
       </c>
       <c r="K14" t="n">
-        <v>437.1558184494975</v>
+        <v>437.1558184494976</v>
       </c>
       <c r="L14" t="n">
-        <v>595.1351230333942</v>
+        <v>595.1351230333943</v>
       </c>
       <c r="M14" t="n">
-        <v>337.9148544427994</v>
+        <v>678.9767829929616</v>
       </c>
       <c r="N14" t="n">
-        <v>675.1835416893384</v>
+        <v>675.1835416893385</v>
       </c>
       <c r="O14" t="n">
-        <v>591.9125938492966</v>
+        <v>591.9125938492967</v>
       </c>
       <c r="P14" t="n">
         <v>467.1287722386917</v>
       </c>
       <c r="Q14" t="n">
-        <v>272.7924763587181</v>
+        <v>100.8271629806292</v>
       </c>
       <c r="R14" t="n">
-        <v>14.62374499692473</v>
+        <v>14.62374499692476</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>5.534985153234629</v>
+        <v>131.6260204936435</v>
       </c>
       <c r="K15" t="n">
-        <v>88.40443862525601</v>
+        <v>88.40443862525603</v>
       </c>
       <c r="L15" t="n">
         <v>536.5014684317237</v>
       </c>
       <c r="M15" t="n">
-        <v>678.5761728035026</v>
+        <v>678.5761728035027</v>
       </c>
       <c r="N15" t="n">
-        <v>233.0593606759781</v>
+        <v>233.0593606759782</v>
       </c>
       <c r="O15" t="n">
-        <v>584.6218648789024</v>
+        <v>584.6218648789026</v>
       </c>
       <c r="P15" t="n">
-        <v>216.2851152210714</v>
+        <v>300.2713676165113</v>
       </c>
       <c r="Q15" t="n">
-        <v>248.9438723335659</v>
+        <v>38.86658459771687</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>7.72771154742307</v>
+        <v>7.727711547423098</v>
       </c>
       <c r="K16" t="n">
-        <v>132.241696132589</v>
+        <v>132.2416961325891</v>
       </c>
       <c r="L16" t="n">
-        <v>220.266001337137</v>
+        <v>220.2660013371371</v>
       </c>
       <c r="M16" t="n">
         <v>241.7529970334047</v>
       </c>
       <c r="N16" t="n">
-        <v>241.9231270538921</v>
+        <v>241.9231270538922</v>
       </c>
       <c r="O16" t="n">
-        <v>208.6542715276851</v>
+        <v>208.6542715276852</v>
       </c>
       <c r="P16" t="n">
         <v>157.3852561696482</v>
       </c>
       <c r="Q16" t="n">
-        <v>30.23774884936634</v>
+        <v>30.23774884936637</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>210.3041263744447</v>
+        <v>210.3041263744448</v>
       </c>
       <c r="K17" t="n">
-        <v>437.1558184494975</v>
+        <v>437.1558184494976</v>
       </c>
       <c r="L17" t="n">
-        <v>575.8719026547149</v>
+        <v>595.1351230333943</v>
       </c>
       <c r="M17" t="n">
-        <v>678.9767829929616</v>
+        <v>337.9148544427989</v>
       </c>
       <c r="N17" t="n">
-        <v>675.1835416893384</v>
+        <v>675.1835416893385</v>
       </c>
       <c r="O17" t="n">
-        <v>591.9125938492966</v>
+        <v>591.9125938492967</v>
       </c>
       <c r="P17" t="n">
-        <v>145.330064067209</v>
+        <v>467.1287722386917</v>
       </c>
       <c r="Q17" t="n">
-        <v>272.7924763587181</v>
+        <v>272.7924763587182</v>
       </c>
       <c r="R17" t="n">
-        <v>14.62374499692473</v>
+        <v>14.62374499692476</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,19 +35969,19 @@
         <v>536.5014684317237</v>
       </c>
       <c r="M18" t="n">
-        <v>370.732012407914</v>
+        <v>212.8711090535027</v>
       </c>
       <c r="N18" t="n">
-        <v>233.0593606759781</v>
+        <v>233.0593606759782</v>
       </c>
       <c r="O18" t="n">
-        <v>584.6218648789024</v>
+        <v>424.0199995933764</v>
       </c>
       <c r="P18" t="n">
-        <v>133.5730032636728</v>
+        <v>452.03577190361</v>
       </c>
       <c r="Q18" t="n">
-        <v>248.9438723335659</v>
+        <v>248.943872333566</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>72.41839632222207</v>
+        <v>72.41839632222209</v>
       </c>
       <c r="K19" t="n">
-        <v>196.932380907388</v>
+        <v>196.9323809073881</v>
       </c>
       <c r="L19" t="n">
         <v>284.9566861119361</v>
@@ -36051,16 +36051,16 @@
         <v>306.4436818082037</v>
       </c>
       <c r="N19" t="n">
-        <v>306.6138118286911</v>
+        <v>306.6138118286912</v>
       </c>
       <c r="O19" t="n">
-        <v>273.3449563024849</v>
+        <v>273.3449563024841</v>
       </c>
       <c r="P19" t="n">
         <v>222.0759409444472</v>
       </c>
       <c r="Q19" t="n">
-        <v>94.92843362416534</v>
+        <v>94.92843362416541</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>210.3041263744447</v>
+        <v>210.3041263744448</v>
       </c>
       <c r="K20" t="n">
-        <v>437.1558184494975</v>
+        <v>437.1558184494976</v>
       </c>
       <c r="L20" t="n">
-        <v>466.3881851431374</v>
+        <v>595.1351230333943</v>
       </c>
       <c r="M20" t="n">
         <v>678.9767829929616</v>
       </c>
       <c r="N20" t="n">
-        <v>675.1835416893384</v>
+        <v>675.1835416893385</v>
       </c>
       <c r="O20" t="n">
-        <v>591.9125938492966</v>
+        <v>591.9125938492967</v>
       </c>
       <c r="P20" t="n">
-        <v>467.1287722386917</v>
+        <v>338.3818343484338</v>
       </c>
       <c r="Q20" t="n">
-        <v>60.47748569881347</v>
+        <v>60.47748569881352</v>
       </c>
       <c r="R20" t="n">
-        <v>14.62374499692473</v>
+        <v>14.62374499692476</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>131.6260204936435</v>
+        <v>5.534985153234658</v>
       </c>
       <c r="K21" t="n">
         <v>352.8696756378346</v>
@@ -36206,10 +36206,10 @@
         <v>536.5014684317237</v>
       </c>
       <c r="M21" t="n">
-        <v>212.8711090535027</v>
+        <v>572.2225983851147</v>
       </c>
       <c r="N21" t="n">
-        <v>466.3198146671818</v>
+        <v>233.0593606759782</v>
       </c>
       <c r="O21" t="n">
         <v>190.759545602173</v>
@@ -36218,7 +36218,7 @@
         <v>452.03577190361</v>
       </c>
       <c r="Q21" t="n">
-        <v>248.9438723335659</v>
+        <v>248.943872333566</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>72.41839632222208</v>
+        <v>72.41839632222209</v>
       </c>
       <c r="K22" t="n">
-        <v>196.932380907388</v>
+        <v>196.9323809073881</v>
       </c>
       <c r="L22" t="n">
         <v>284.9566861119361</v>
@@ -36297,7 +36297,7 @@
         <v>222.0759409444472</v>
       </c>
       <c r="Q22" t="n">
-        <v>94.92843362416535</v>
+        <v>94.92843362416536</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>210.3041263744447</v>
+        <v>210.3041263744448</v>
       </c>
       <c r="K23" t="n">
-        <v>437.1558184494975</v>
+        <v>437.1558184494976</v>
       </c>
       <c r="L23" t="n">
-        <v>595.1351230333942</v>
+        <v>595.1351230333944</v>
       </c>
       <c r="M23" t="n">
-        <v>678.9767829929616</v>
+        <v>678.9767829929617</v>
       </c>
       <c r="N23" t="n">
-        <v>675.1835416893384</v>
+        <v>334.1216131391745</v>
       </c>
       <c r="O23" t="n">
-        <v>463.1656559590393</v>
+        <v>591.9125938492969</v>
       </c>
       <c r="P23" t="n">
-        <v>467.1287722386917</v>
+        <v>467.1287722386918</v>
       </c>
       <c r="Q23" t="n">
-        <v>60.47748569881347</v>
+        <v>272.7924763587183</v>
       </c>
       <c r="R23" t="n">
-        <v>14.62374499692473</v>
+        <v>14.62374499692478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>5.534985153234629</v>
+        <v>5.534985153234686</v>
       </c>
       <c r="K24" t="n">
-        <v>352.8696756378346</v>
+        <v>352.8696756378347</v>
       </c>
       <c r="L24" t="n">
-        <v>165.6611231282645</v>
+        <v>536.5014684317238</v>
       </c>
       <c r="M24" t="n">
-        <v>678.5761728035026</v>
+        <v>572.2225983851145</v>
       </c>
       <c r="N24" t="n">
-        <v>422.1465809242575</v>
+        <v>233.0593606759783</v>
       </c>
       <c r="O24" t="n">
-        <v>584.6218648789024</v>
+        <v>190.7595456021731</v>
       </c>
       <c r="P24" t="n">
-        <v>133.5730032636728</v>
+        <v>452.0357719036101</v>
       </c>
       <c r="Q24" t="n">
-        <v>248.9438723335659</v>
+        <v>248.943872333566</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>72.41839632222208</v>
+        <v>72.41839632222211</v>
       </c>
       <c r="K25" t="n">
-        <v>196.932380907388</v>
+        <v>196.9323809073881</v>
       </c>
       <c r="L25" t="n">
         <v>284.9566861119361</v>
       </c>
       <c r="M25" t="n">
-        <v>306.4436818082042</v>
+        <v>306.4436818082037</v>
       </c>
       <c r="N25" t="n">
         <v>306.6138118286912</v>
       </c>
       <c r="O25" t="n">
-        <v>273.3449563024841</v>
+        <v>273.3449563024842</v>
       </c>
       <c r="P25" t="n">
         <v>222.0759409444472</v>
       </c>
       <c r="Q25" t="n">
-        <v>94.92843362416535</v>
+        <v>94.92843362416539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>41.20751120237097</v>
+        <v>41.20751120237102</v>
       </c>
       <c r="K26" t="n">
-        <v>437.1558184494975</v>
+        <v>437.1558184494976</v>
       </c>
       <c r="L26" t="n">
-        <v>423.1698096553058</v>
+        <v>595.1351230333943</v>
       </c>
       <c r="M26" t="n">
         <v>678.9767829929616</v>
       </c>
       <c r="N26" t="n">
-        <v>675.1835416893384</v>
+        <v>675.1835416893385</v>
       </c>
       <c r="O26" t="n">
-        <v>591.9125938492966</v>
+        <v>591.9125938492967</v>
       </c>
       <c r="P26" t="n">
         <v>467.1287722386917</v>
       </c>
       <c r="Q26" t="n">
-        <v>272.7924763587181</v>
+        <v>100.8271629806283</v>
       </c>
       <c r="R26" t="n">
-        <v>14.62374499692473</v>
+        <v>14.62374499692476</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,22 +36677,22 @@
         <v>352.8696756378346</v>
       </c>
       <c r="L27" t="n">
-        <v>215.0199974425815</v>
+        <v>536.5014684317237</v>
       </c>
       <c r="M27" t="n">
-        <v>212.8711090535027</v>
+        <v>446.131563044706</v>
       </c>
       <c r="N27" t="n">
-        <v>712.4017350195317</v>
+        <v>233.0593606759782</v>
       </c>
       <c r="O27" t="n">
-        <v>584.6218648789024</v>
+        <v>190.759545602173</v>
       </c>
       <c r="P27" t="n">
-        <v>133.5730032636728</v>
+        <v>452.03577190361</v>
       </c>
       <c r="Q27" t="n">
-        <v>248.9438723335659</v>
+        <v>248.943872333566</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>72.41839632222208</v>
+        <v>72.41839632222209</v>
       </c>
       <c r="K28" t="n">
-        <v>196.932380907388</v>
+        <v>196.9323809073881</v>
       </c>
       <c r="L28" t="n">
         <v>284.9566861119361</v>
@@ -36771,7 +36771,7 @@
         <v>222.0759409444472</v>
       </c>
       <c r="Q28" t="n">
-        <v>94.92843362416535</v>
+        <v>94.92843362416536</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>210.3041263744448</v>
+        <v>41.20751120237102</v>
       </c>
       <c r="K29" t="n">
-        <v>437.1558184494976</v>
+        <v>340.4069077040178</v>
       </c>
       <c r="L29" t="n">
         <v>595.1351230333943</v>
@@ -36844,7 +36844,7 @@
         <v>675.1835416893385</v>
       </c>
       <c r="O29" t="n">
-        <v>311.4433229348199</v>
+        <v>591.9125938492967</v>
       </c>
       <c r="P29" t="n">
         <v>467.1287722386917</v>
@@ -36853,7 +36853,7 @@
         <v>272.7924763587182</v>
       </c>
       <c r="R29" t="n">
-        <v>14.62374499692476</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,19 +36914,19 @@
         <v>88.40443862525603</v>
       </c>
       <c r="L30" t="n">
-        <v>479.48523445516</v>
+        <v>536.5014684317237</v>
       </c>
       <c r="M30" t="n">
-        <v>212.8711090535027</v>
+        <v>678.5761728035027</v>
       </c>
       <c r="N30" t="n">
-        <v>712.4017350195318</v>
+        <v>233.0593606759782</v>
       </c>
       <c r="O30" t="n">
-        <v>584.6218648789026</v>
+        <v>222.7801728559552</v>
       </c>
       <c r="P30" t="n">
-        <v>133.5730032636728</v>
+        <v>452.03577190361</v>
       </c>
       <c r="Q30" t="n">
         <v>248.943872333566</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.45927207230635</v>
+        <v>68.45927207230642</v>
       </c>
       <c r="K31" t="n">
-        <v>192.9732566574723</v>
+        <v>192.9732566574724</v>
       </c>
       <c r="L31" t="n">
-        <v>280.9975618620203</v>
+        <v>280.9975618620204</v>
       </c>
       <c r="M31" t="n">
         <v>302.484557558288</v>
       </c>
       <c r="N31" t="n">
-        <v>302.6546875787754</v>
+        <v>302.6546875787755</v>
       </c>
       <c r="O31" t="n">
-        <v>269.3858320525684</v>
+        <v>269.3858320525685</v>
       </c>
       <c r="P31" t="n">
         <v>218.1168166945315</v>
       </c>
       <c r="Q31" t="n">
-        <v>90.96930937424962</v>
+        <v>90.96930937424969</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>41.20751120237102</v>
+        <v>210.3041263744448</v>
       </c>
       <c r="K32" t="n">
         <v>437.1558184494976</v>
       </c>
       <c r="L32" t="n">
-        <v>595.1351230333943</v>
+        <v>254.0731944832294</v>
       </c>
       <c r="M32" t="n">
         <v>678.9767829929616</v>
@@ -37084,7 +37084,7 @@
         <v>591.9125938492967</v>
       </c>
       <c r="P32" t="n">
-        <v>295.1634588606032</v>
+        <v>467.1287722386917</v>
       </c>
       <c r="Q32" t="n">
         <v>272.7924763587182</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>5.534985153234658</v>
+        <v>131.6260204936435</v>
       </c>
       <c r="K33" t="n">
         <v>352.8696756378346</v>
       </c>
       <c r="L33" t="n">
-        <v>416.5105834197822</v>
+        <v>536.5014684317237</v>
       </c>
       <c r="M33" t="n">
         <v>212.8711090535027</v>
       </c>
       <c r="N33" t="n">
-        <v>712.4017350195318</v>
+        <v>233.0593606759782</v>
       </c>
       <c r="O33" t="n">
-        <v>190.759545602173</v>
+        <v>424.0199995933764</v>
       </c>
       <c r="P33" t="n">
         <v>452.03577190361</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>72.41839632222209</v>
+        <v>72.41839632222214</v>
       </c>
       <c r="K34" t="n">
         <v>196.9323809073881</v>
@@ -37239,13 +37239,13 @@
         <v>306.6138118286912</v>
       </c>
       <c r="O34" t="n">
-        <v>273.3449563024841</v>
+        <v>273.3449563024842</v>
       </c>
       <c r="P34" t="n">
-        <v>222.0759409444472</v>
+        <v>222.0759409444473</v>
       </c>
       <c r="Q34" t="n">
-        <v>94.92843362416536</v>
+        <v>94.92843362416541</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>41.20751120237102</v>
+        <v>210.3041263744448</v>
       </c>
       <c r="K35" t="n">
         <v>437.1558184494976</v>
       </c>
       <c r="L35" t="n">
-        <v>595.1351230333943</v>
+        <v>254.0731944832307</v>
       </c>
       <c r="M35" t="n">
         <v>678.9767829929616</v>
@@ -37318,7 +37318,7 @@
         <v>675.1835416893385</v>
       </c>
       <c r="O35" t="n">
-        <v>419.9472804712054</v>
+        <v>591.9125938492967</v>
       </c>
       <c r="P35" t="n">
         <v>467.1287722386917</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>5.534985153234658</v>
+        <v>131.6260204936435</v>
       </c>
       <c r="K36" t="n">
-        <v>88.40443862525603</v>
+        <v>352.8696756378346</v>
       </c>
       <c r="L36" t="n">
         <v>536.5014684317237</v>
       </c>
       <c r="M36" t="n">
-        <v>678.5761728035027</v>
+        <v>212.8711090535027</v>
       </c>
       <c r="N36" t="n">
-        <v>712.4017350195318</v>
+        <v>466.3198146671816</v>
       </c>
       <c r="O36" t="n">
-        <v>398.0688902285968</v>
+        <v>190.759545602173</v>
       </c>
       <c r="P36" t="n">
-        <v>133.5730032636728</v>
+        <v>452.03577190361</v>
       </c>
       <c r="Q36" t="n">
-        <v>38.86658459771687</v>
+        <v>248.943872333566</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>72.41839632222214</v>
+        <v>72.41839632222127</v>
       </c>
       <c r="K37" t="n">
         <v>196.9323809073881</v>
@@ -37546,7 +37546,7 @@
         <v>437.1558184494976</v>
       </c>
       <c r="L38" t="n">
-        <v>254.0731944832316</v>
+        <v>595.1351230333943</v>
       </c>
       <c r="M38" t="n">
         <v>678.9767829929616</v>
@@ -37555,7 +37555,7 @@
         <v>675.1835416893385</v>
       </c>
       <c r="O38" t="n">
-        <v>591.9125938492967</v>
+        <v>250.8506652991317</v>
       </c>
       <c r="P38" t="n">
         <v>467.1287722386917</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>5.534985153234658</v>
+        <v>131.6260204936435</v>
       </c>
       <c r="K39" t="n">
-        <v>171.1165505826544</v>
+        <v>352.8696756378346</v>
       </c>
       <c r="L39" t="n">
         <v>536.5014684317237</v>
       </c>
       <c r="M39" t="n">
-        <v>678.5761728035027</v>
+        <v>446.131563044706</v>
       </c>
       <c r="N39" t="n">
         <v>233.0593606759782</v>
       </c>
       <c r="O39" t="n">
-        <v>584.6218648789026</v>
+        <v>190.759545602173</v>
       </c>
       <c r="P39" t="n">
-        <v>133.5730032636728</v>
+        <v>452.03577190361</v>
       </c>
       <c r="Q39" t="n">
         <v>248.943872333566</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>72.41839632222208</v>
+        <v>72.41839632222221</v>
       </c>
       <c r="K40" t="n">
-        <v>196.9323809073881</v>
+        <v>196.9323809073857</v>
       </c>
       <c r="L40" t="n">
-        <v>284.9566861119361</v>
+        <v>284.9566861119362</v>
       </c>
       <c r="M40" t="n">
-        <v>306.4436818082037</v>
+        <v>306.4436818082038</v>
       </c>
       <c r="N40" t="n">
-        <v>306.6138118286921</v>
+        <v>306.6138118286913</v>
       </c>
       <c r="O40" t="n">
-        <v>273.3449563024841</v>
+        <v>273.3449563024843</v>
       </c>
       <c r="P40" t="n">
-        <v>222.0759409444472</v>
+        <v>222.0759409444473</v>
       </c>
       <c r="Q40" t="n">
-        <v>94.92843362416535</v>
+        <v>94.92843362416548</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,10 +37786,10 @@
         <v>595.1351230333943</v>
       </c>
       <c r="M41" t="n">
-        <v>678.9767829929616</v>
+        <v>337.9148544427968</v>
       </c>
       <c r="N41" t="n">
-        <v>334.1216131391757</v>
+        <v>675.1835416893385</v>
       </c>
       <c r="O41" t="n">
         <v>591.9125938492967</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>5.534985153234658</v>
+        <v>131.6260204936435</v>
       </c>
       <c r="K42" t="n">
-        <v>88.40443862525603</v>
+        <v>352.8696756378346</v>
       </c>
       <c r="L42" t="n">
-        <v>300.7508117491849</v>
+        <v>536.5014684317237</v>
       </c>
       <c r="M42" t="n">
-        <v>678.5761728035027</v>
+        <v>212.8711090535027</v>
       </c>
       <c r="N42" t="n">
-        <v>233.0593606759782</v>
+        <v>466.3198146671816</v>
       </c>
       <c r="O42" t="n">
-        <v>584.6218648789026</v>
+        <v>190.759545602173</v>
       </c>
       <c r="P42" t="n">
         <v>452.03577190361</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>72.41839632222209</v>
+        <v>72.41839632222214</v>
       </c>
       <c r="K43" t="n">
         <v>196.9323809073881</v>
@@ -37950,13 +37950,13 @@
         <v>306.6138118286912</v>
       </c>
       <c r="O43" t="n">
-        <v>273.3449563024841</v>
+        <v>273.3449563024842</v>
       </c>
       <c r="P43" t="n">
-        <v>222.0759409444472</v>
+        <v>222.0759409444473</v>
       </c>
       <c r="Q43" t="n">
-        <v>94.92843362416536</v>
+        <v>94.92843362416541</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>210.3041263744448</v>
+        <v>96.18093348111078</v>
       </c>
       <c r="K44" t="n">
         <v>437.1558184494976</v>
       </c>
       <c r="L44" t="n">
-        <v>254.0731944832302</v>
+        <v>595.1351230333943</v>
       </c>
       <c r="M44" t="n">
         <v>678.9767829929616</v>
@@ -38035,10 +38035,10 @@
         <v>467.1287722386917</v>
       </c>
       <c r="Q44" t="n">
-        <v>272.7924763587182</v>
+        <v>60.47748569881352</v>
       </c>
       <c r="R44" t="n">
-        <v>14.62374499692476</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,19 +38096,19 @@
         <v>131.6260204936435</v>
       </c>
       <c r="K45" t="n">
-        <v>97.40309190576765</v>
+        <v>352.8696756378346</v>
       </c>
       <c r="L45" t="n">
-        <v>165.6611231282645</v>
+        <v>536.5014684317237</v>
       </c>
       <c r="M45" t="n">
-        <v>678.5761728035027</v>
+        <v>446.131563044706</v>
       </c>
       <c r="N45" t="n">
         <v>233.0593606759782</v>
       </c>
       <c r="O45" t="n">
-        <v>584.6218648789026</v>
+        <v>190.759545602173</v>
       </c>
       <c r="P45" t="n">
         <v>452.03577190361</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>72.41839632222211</v>
+        <v>72.41839632222127</v>
       </c>
       <c r="K46" t="n">
         <v>196.9323809073881</v>
@@ -38187,13 +38187,13 @@
         <v>306.6138118286912</v>
       </c>
       <c r="O46" t="n">
-        <v>273.3449563024841</v>
+        <v>273.3449563024842</v>
       </c>
       <c r="P46" t="n">
-        <v>222.0759409444472</v>
+        <v>222.0759409444473</v>
       </c>
       <c r="Q46" t="n">
-        <v>94.92843362416538</v>
+        <v>94.92843362416541</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
